--- a/raw_data/20200818_saline/20200818_Sensor0_Test_35.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_35.xlsx
@@ -1,1656 +1,2072 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C588163F-8E93-401F-859D-19304EDFBBEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>30602.878229</v>
+        <v>30602.878229000002</v>
       </c>
       <c r="B2" s="1">
-        <v>8.500800</v>
+        <v>8.5007999999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>905.835000</v>
+        <v>905.83500000000004</v>
       </c>
       <c r="D2" s="1">
-        <v>-197.171000</v>
+        <v>-197.17099999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>30612.972808</v>
+        <v>30612.972807999999</v>
       </c>
       <c r="G2" s="1">
-        <v>8.503604</v>
+        <v>8.5036039999999993</v>
       </c>
       <c r="H2" s="1">
-        <v>922.683000</v>
+        <v>922.68299999999999</v>
       </c>
       <c r="I2" s="1">
-        <v>-167.319000</v>
+        <v>-167.31899999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>30623.417596</v>
+        <v>30623.417595999999</v>
       </c>
       <c r="L2" s="1">
-        <v>8.506505</v>
+        <v>8.5065050000000006</v>
       </c>
       <c r="M2" s="1">
-        <v>945.167000</v>
+        <v>945.16700000000003</v>
       </c>
       <c r="N2" s="1">
-        <v>-119.810000</v>
+        <v>-119.81</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>30633.942199</v>
+        <v>30633.942199000001</v>
       </c>
       <c r="Q2" s="1">
-        <v>8.509428</v>
+        <v>8.5094279999999998</v>
       </c>
       <c r="R2" s="1">
-        <v>951.640000</v>
+        <v>951.64</v>
       </c>
       <c r="S2" s="1">
-        <v>-104.310000</v>
+        <v>-104.31</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>30644.842749</v>
+        <v>30644.842748999999</v>
       </c>
       <c r="V2" s="1">
-        <v>8.512456</v>
+        <v>8.5124560000000002</v>
       </c>
       <c r="W2" s="1">
-        <v>958.010000</v>
+        <v>958.01</v>
       </c>
       <c r="X2" s="1">
-        <v>-90.376800</v>
+        <v>-90.376800000000003</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>30655.283568</v>
+        <v>30655.283567999999</v>
       </c>
       <c r="AA2" s="1">
-        <v>8.515357</v>
+        <v>8.5153569999999998</v>
       </c>
       <c r="AB2" s="1">
-        <v>965.207000</v>
+        <v>965.20699999999999</v>
       </c>
       <c r="AC2" s="1">
-        <v>-80.590900</v>
+        <v>-80.590900000000005</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>30665.289827</v>
+        <v>30665.289827000001</v>
       </c>
       <c r="AF2" s="1">
-        <v>8.518136</v>
+        <v>8.5181360000000002</v>
       </c>
       <c r="AG2" s="1">
-        <v>970.139000</v>
+        <v>970.13900000000001</v>
       </c>
       <c r="AH2" s="1">
-        <v>-80.065000</v>
+        <v>-80.064999999999998</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>30675.391878</v>
+        <v>30675.391877999999</v>
       </c>
       <c r="AK2" s="1">
-        <v>8.520942</v>
+        <v>8.5209419999999998</v>
       </c>
       <c r="AL2" s="1">
-        <v>978.025000</v>
+        <v>978.02499999999998</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.757100</v>
+        <v>-87.757099999999994</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>30685.655560</v>
+        <v>30685.655559999999</v>
       </c>
       <c r="AP2" s="1">
-        <v>8.523793</v>
+        <v>8.5237929999999995</v>
       </c>
       <c r="AQ2" s="1">
-        <v>987.172000</v>
+        <v>987.17200000000003</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.640000</v>
+        <v>-102.64</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>30696.656826</v>
+        <v>30696.656825999999</v>
       </c>
       <c r="AU2" s="1">
-        <v>8.526849</v>
+        <v>8.5268490000000003</v>
       </c>
       <c r="AV2" s="1">
-        <v>998.502000</v>
+        <v>998.50199999999995</v>
       </c>
       <c r="AW2" s="1">
-        <v>-124.172000</v>
+        <v>-124.172</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>30707.422490</v>
+        <v>30707.422490000001</v>
       </c>
       <c r="AZ2" s="1">
-        <v>8.529840</v>
+        <v>8.5298400000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1008.090000</v>
+        <v>1008.09</v>
       </c>
       <c r="BB2" s="1">
-        <v>-142.944000</v>
+        <v>-142.94399999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>30718.702044</v>
+        <v>30718.702044000001</v>
       </c>
       <c r="BE2" s="1">
-        <v>8.532973</v>
+        <v>8.5329730000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1053.150000</v>
+        <v>1053.1500000000001</v>
       </c>
       <c r="BG2" s="1">
-        <v>-227.943000</v>
+        <v>-227.94300000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
         <v>30729.769742</v>
       </c>
       <c r="BJ2" s="1">
-        <v>8.536047</v>
+        <v>8.5360469999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1132.340000</v>
+        <v>1132.3399999999999</v>
       </c>
       <c r="BL2" s="1">
-        <v>-364.676000</v>
+        <v>-364.67599999999999</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>30741.222893</v>
+        <v>30741.222892999998</v>
       </c>
       <c r="BO2" s="1">
-        <v>8.539229</v>
+        <v>8.5392290000000006</v>
       </c>
       <c r="BP2" s="1">
-        <v>1263.730000</v>
+        <v>1263.73</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-576.442000</v>
+        <v>-576.44200000000001</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>30751.583824</v>
+        <v>30751.583824000001</v>
       </c>
       <c r="BT2" s="1">
-        <v>8.542107</v>
+        <v>8.5421069999999997</v>
       </c>
       <c r="BU2" s="1">
-        <v>1411.300000</v>
+        <v>1411.3</v>
       </c>
       <c r="BV2" s="1">
-        <v>-802.840000</v>
+        <v>-802.84</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>30762.281018</v>
+        <v>30762.281018000001</v>
       </c>
       <c r="BY2" s="1">
-        <v>8.545078</v>
+        <v>8.5450780000000002</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1574.430000</v>
+        <v>1574.43</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1039.170000</v>
+        <v>-1039.17</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
         <v>30773.185556</v>
       </c>
       <c r="CD2" s="1">
-        <v>8.548107</v>
+        <v>8.5481069999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>1986.850000</v>
+        <v>1986.85</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1590.040000</v>
+        <v>-1590.04</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>30603.241300</v>
+        <v>30603.241300000002</v>
       </c>
       <c r="B3" s="1">
-        <v>8.500900</v>
+        <v>8.5008999999999997</v>
       </c>
       <c r="C3" s="1">
-        <v>905.652000</v>
+        <v>905.65200000000004</v>
       </c>
       <c r="D3" s="1">
-        <v>-197.195000</v>
+        <v>-197.19499999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>30613.340344</v>
       </c>
       <c r="G3" s="1">
-        <v>8.503706</v>
+        <v>8.5037059999999993</v>
       </c>
       <c r="H3" s="1">
-        <v>923.073000</v>
+        <v>923.07299999999998</v>
       </c>
       <c r="I3" s="1">
-        <v>-167.652000</v>
+        <v>-167.65199999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>30623.796505</v>
+        <v>30623.796504999998</v>
       </c>
       <c r="L3" s="1">
-        <v>8.506610</v>
+        <v>8.5066100000000002</v>
       </c>
       <c r="M3" s="1">
-        <v>944.936000</v>
+        <v>944.93600000000004</v>
       </c>
       <c r="N3" s="1">
-        <v>-119.857000</v>
+        <v>-119.857</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>30634.642028</v>
+        <v>30634.642027999998</v>
       </c>
       <c r="Q3" s="1">
-        <v>8.509623</v>
+        <v>8.5096229999999995</v>
       </c>
       <c r="R3" s="1">
-        <v>951.611000</v>
+        <v>951.61099999999999</v>
       </c>
       <c r="S3" s="1">
-        <v>-104.243000</v>
+        <v>-104.24299999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>30645.252974</v>
+        <v>30645.252973999999</v>
       </c>
       <c r="V3" s="1">
-        <v>8.512570</v>
+        <v>8.5125700000000002</v>
       </c>
       <c r="W3" s="1">
-        <v>958.140000</v>
+        <v>958.14</v>
       </c>
       <c r="X3" s="1">
-        <v>-90.365300</v>
+        <v>-90.365300000000005</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <v>30655.711615</v>
       </c>
       <c r="AA3" s="1">
-        <v>8.515475</v>
+        <v>8.5154750000000003</v>
       </c>
       <c r="AB3" s="1">
-        <v>965.179000</v>
+        <v>965.17899999999997</v>
       </c>
       <c r="AC3" s="1">
-        <v>-80.590800</v>
+        <v>-80.590800000000002</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>30665.640499</v>
+        <v>30665.640499000001</v>
       </c>
       <c r="AF3" s="1">
-        <v>8.518233</v>
+        <v>8.5182330000000004</v>
       </c>
       <c r="AG3" s="1">
-        <v>970.115000</v>
+        <v>970.11500000000001</v>
       </c>
       <c r="AH3" s="1">
-        <v>-80.105800</v>
+        <v>-80.105800000000002</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>30675.775252</v>
+        <v>30675.775251999999</v>
       </c>
       <c r="AK3" s="1">
-        <v>8.521049</v>
+        <v>8.5210489999999997</v>
       </c>
       <c r="AL3" s="1">
-        <v>978.020000</v>
+        <v>978.02</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.751200</v>
+        <v>-87.751199999999997</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>30686.046904</v>
+        <v>30686.046903999999</v>
       </c>
       <c r="AP3" s="1">
-        <v>8.523902</v>
+        <v>8.5239019999999996</v>
       </c>
       <c r="AQ3" s="1">
-        <v>987.178000</v>
+        <v>987.178</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.651000</v>
+        <v>-102.651</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>30697.075448</v>
       </c>
       <c r="AU3" s="1">
-        <v>8.526965</v>
+        <v>8.5269650000000006</v>
       </c>
       <c r="AV3" s="1">
-        <v>998.514000</v>
+        <v>998.51400000000001</v>
       </c>
       <c r="AW3" s="1">
-        <v>-124.168000</v>
+        <v>-124.16800000000001</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>30708.158555</v>
+        <v>30708.158555000002</v>
       </c>
       <c r="AZ3" s="1">
-        <v>8.530044</v>
+        <v>8.5300440000000002</v>
       </c>
       <c r="BA3" s="1">
-        <v>1008.080000</v>
+        <v>1008.08</v>
       </c>
       <c r="BB3" s="1">
-        <v>-142.948000</v>
+        <v>-142.94800000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>30719.134524</v>
+        <v>30719.134524000001</v>
       </c>
       <c r="BE3" s="1">
-        <v>8.533093</v>
+        <v>8.5330929999999992</v>
       </c>
       <c r="BF3" s="1">
-        <v>1053.170000</v>
+        <v>1053.17</v>
       </c>
       <c r="BG3" s="1">
-        <v>-227.901000</v>
+        <v>-227.90100000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>30730.147728</v>
       </c>
       <c r="BJ3" s="1">
-        <v>8.536152</v>
+        <v>8.5361519999999995</v>
       </c>
       <c r="BK3" s="1">
-        <v>1132.330000</v>
+        <v>1132.33</v>
       </c>
       <c r="BL3" s="1">
-        <v>-364.653000</v>
+        <v>-364.65300000000002</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>30741.662359</v>
+        <v>30741.662359000002</v>
       </c>
       <c r="BO3" s="1">
-        <v>8.539351</v>
+        <v>8.5393509999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1263.770000</v>
+        <v>1263.77</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-576.507000</v>
+        <v>-576.50699999999995</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>30752.017295</v>
+        <v>30752.017295000001</v>
       </c>
       <c r="BT3" s="1">
-        <v>8.542227</v>
+        <v>8.5422270000000005</v>
       </c>
       <c r="BU3" s="1">
-        <v>1411.380000</v>
+        <v>1411.38</v>
       </c>
       <c r="BV3" s="1">
-        <v>-802.788000</v>
+        <v>-802.78800000000001</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>30762.755722</v>
+        <v>30762.755722000002</v>
       </c>
       <c r="BY3" s="1">
-        <v>8.545210</v>
+        <v>8.5452100000000009</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1574.620000</v>
+        <v>1574.62</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1039.240000</v>
+        <v>-1039.24</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>30773.780260</v>
+        <v>30773.78026</v>
       </c>
       <c r="CD3" s="1">
-        <v>8.548272</v>
+        <v>8.5482720000000008</v>
       </c>
       <c r="CE3" s="1">
-        <v>1985.270000</v>
+        <v>1985.27</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1591.630000</v>
+        <v>-1591.63</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
         <v>30603.586517</v>
       </c>
       <c r="B4" s="1">
-        <v>8.500996</v>
+        <v>8.5009960000000007</v>
       </c>
       <c r="C4" s="1">
-        <v>905.741000</v>
+        <v>905.74099999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>-197.210000</v>
+        <v>-197.21</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>30613.999029</v>
+        <v>30613.999028999999</v>
       </c>
       <c r="G4" s="1">
-        <v>8.503889</v>
+        <v>8.5038889999999991</v>
       </c>
       <c r="H4" s="1">
-        <v>922.488000</v>
+        <v>922.48800000000006</v>
       </c>
       <c r="I4" s="1">
-        <v>-167.113000</v>
+        <v>-167.113</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>30624.454697</v>
+        <v>30624.454697000001</v>
       </c>
       <c r="L4" s="1">
         <v>8.506793</v>
       </c>
       <c r="M4" s="1">
-        <v>944.848000</v>
+        <v>944.84799999999996</v>
       </c>
       <c r="N4" s="1">
-        <v>-119.959000</v>
+        <v>-119.959</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>30635.021468</v>
+        <v>30635.021467999999</v>
       </c>
       <c r="Q4" s="1">
-        <v>8.509728</v>
+        <v>8.5097280000000008</v>
       </c>
       <c r="R4" s="1">
-        <v>951.635000</v>
+        <v>951.63499999999999</v>
       </c>
       <c r="S4" s="1">
-        <v>-104.205000</v>
+        <v>-104.205</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>30645.599677</v>
+        <v>30645.599676999998</v>
       </c>
       <c r="V4" s="1">
-        <v>8.512667</v>
+        <v>8.5126670000000004</v>
       </c>
       <c r="W4" s="1">
-        <v>958.040000</v>
+        <v>958.04</v>
       </c>
       <c r="X4" s="1">
-        <v>-90.353200</v>
+        <v>-90.353200000000001</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>30656.063248</v>
+        <v>30656.063247999999</v>
       </c>
       <c r="AA4" s="1">
-        <v>8.515573</v>
+        <v>8.5155729999999998</v>
       </c>
       <c r="AB4" s="1">
-        <v>965.266000</v>
+        <v>965.26599999999996</v>
       </c>
       <c r="AC4" s="1">
-        <v>-80.618000</v>
+        <v>-80.617999999999995</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>30665.985254</v>
+        <v>30665.985253999999</v>
       </c>
       <c r="AF4" s="1">
-        <v>8.518329</v>
+        <v>8.5183289999999996</v>
       </c>
       <c r="AG4" s="1">
-        <v>970.158000</v>
+        <v>970.15800000000002</v>
       </c>
       <c r="AH4" s="1">
-        <v>-80.099800</v>
+        <v>-80.099800000000002</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>30676.195395</v>
+        <v>30676.195394999999</v>
       </c>
       <c r="AK4" s="1">
-        <v>8.521165</v>
+        <v>8.5211649999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>978.025000</v>
+        <v>978.02499999999998</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.741300</v>
+        <v>-87.741299999999995</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>30686.470983</v>
+        <v>30686.470982999999</v>
       </c>
       <c r="AP4" s="1">
-        <v>8.524020</v>
+        <v>8.5240200000000002</v>
       </c>
       <c r="AQ4" s="1">
-        <v>987.193000</v>
+        <v>987.19299999999998</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.632000</v>
+        <v>-102.63200000000001</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>30697.423143</v>
       </c>
       <c r="AU4" s="1">
-        <v>8.527062</v>
+        <v>8.5270620000000008</v>
       </c>
       <c r="AV4" s="1">
-        <v>998.506000</v>
+        <v>998.50599999999997</v>
       </c>
       <c r="AW4" s="1">
-        <v>-124.165000</v>
+        <v>-124.16500000000001</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>30708.516169</v>
+        <v>30708.516168999999</v>
       </c>
       <c r="AZ4" s="1">
-        <v>8.530143</v>
+        <v>8.5301430000000007</v>
       </c>
       <c r="BA4" s="1">
-        <v>1008.070000</v>
+        <v>1008.07</v>
       </c>
       <c r="BB4" s="1">
-        <v>-142.918000</v>
+        <v>-142.91800000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>30719.498586</v>
+        <v>30719.498586000002</v>
       </c>
       <c r="BE4" s="1">
-        <v>8.533194</v>
+        <v>8.5331939999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1053.120000</v>
+        <v>1053.1199999999999</v>
       </c>
       <c r="BG4" s="1">
-        <v>-227.931000</v>
+        <v>-227.93100000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>30730.529612</v>
+        <v>30730.529611999998</v>
       </c>
       <c r="BJ4" s="1">
-        <v>8.536258</v>
+        <v>8.5362580000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1132.330000</v>
+        <v>1132.33</v>
       </c>
       <c r="BL4" s="1">
-        <v>-364.668000</v>
+        <v>-364.66800000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>30742.088412</v>
+        <v>30742.088412000001</v>
       </c>
       <c r="BO4" s="1">
-        <v>8.539469</v>
+        <v>8.5394690000000004</v>
       </c>
       <c r="BP4" s="1">
-        <v>1263.740000</v>
+        <v>1263.74</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-576.490000</v>
+        <v>-576.49</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>30752.439923</v>
+        <v>30752.439923000002</v>
       </c>
       <c r="BT4" s="1">
-        <v>8.542344</v>
+        <v>8.5423439999999999</v>
       </c>
       <c r="BU4" s="1">
-        <v>1411.490000</v>
+        <v>1411.49</v>
       </c>
       <c r="BV4" s="1">
-        <v>-802.688000</v>
+        <v>-802.68799999999999</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>30763.187233</v>
+        <v>30763.187233000001</v>
       </c>
       <c r="BY4" s="1">
-        <v>8.545330</v>
+        <v>8.5453299999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1574.480000</v>
+        <v>1574.48</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1039.280000</v>
+        <v>-1039.28</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
         <v>30774.319411</v>
       </c>
       <c r="CD4" s="1">
-        <v>8.548422</v>
+        <v>8.5484220000000004</v>
       </c>
       <c r="CE4" s="1">
-        <v>1986.970000</v>
+        <v>1986.97</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1591.940000</v>
+        <v>-1591.94</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
         <v>30604.239759</v>
       </c>
       <c r="B5" s="1">
-        <v>8.501178</v>
+        <v>8.5011779999999995</v>
       </c>
       <c r="C5" s="1">
-        <v>905.774000</v>
+        <v>905.774</v>
       </c>
       <c r="D5" s="1">
-        <v>-197.472000</v>
+        <v>-197.47200000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>30614.373540</v>
+        <v>30614.373540000001</v>
       </c>
       <c r="G5" s="1">
-        <v>8.503993</v>
+        <v>8.5039929999999995</v>
       </c>
       <c r="H5" s="1">
-        <v>922.718000</v>
+        <v>922.71799999999996</v>
       </c>
       <c r="I5" s="1">
-        <v>-167.362000</v>
+        <v>-167.36199999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>30624.863895</v>
+        <v>30624.863894999999</v>
       </c>
       <c r="L5" s="1">
         <v>8.506907</v>
       </c>
       <c r="M5" s="1">
-        <v>945.193000</v>
+        <v>945.19299999999998</v>
       </c>
       <c r="N5" s="1">
-        <v>-119.780000</v>
+        <v>-119.78</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>30635.372671</v>
+        <v>30635.372671000001</v>
       </c>
       <c r="Q5" s="1">
-        <v>8.509826</v>
+        <v>8.5098260000000003</v>
       </c>
       <c r="R5" s="1">
-        <v>951.637000</v>
+        <v>951.63699999999994</v>
       </c>
       <c r="S5" s="1">
-        <v>-104.222000</v>
+        <v>-104.22199999999999</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>30645.941885</v>
       </c>
       <c r="V5" s="1">
-        <v>8.512762</v>
+        <v>8.5127620000000004</v>
       </c>
       <c r="W5" s="1">
-        <v>958.122000</v>
+        <v>958.12199999999996</v>
       </c>
       <c r="X5" s="1">
-        <v>-90.341100</v>
+        <v>-90.341099999999997</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>30656.412927</v>
+        <v>30656.412927000001</v>
       </c>
       <c r="AA5" s="1">
-        <v>8.515670</v>
+        <v>8.5156700000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>965.242000</v>
+        <v>965.24199999999996</v>
       </c>
       <c r="AC5" s="1">
-        <v>-80.662300</v>
+        <v>-80.662300000000002</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>30666.405328</v>
+        <v>30666.405328000001</v>
       </c>
       <c r="AF5" s="1">
-        <v>8.518446</v>
+        <v>8.5184460000000009</v>
       </c>
       <c r="AG5" s="1">
-        <v>970.152000</v>
+        <v>970.15200000000004</v>
       </c>
       <c r="AH5" s="1">
-        <v>-80.114200</v>
+        <v>-80.114199999999997</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
         <v>30676.495444</v>
       </c>
       <c r="AK5" s="1">
-        <v>8.521249</v>
+        <v>8.5212489999999992</v>
       </c>
       <c r="AL5" s="1">
-        <v>978.069000</v>
+        <v>978.06899999999996</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.769900</v>
+        <v>-87.769900000000007</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>30686.767094</v>
+        <v>30686.767093999999</v>
       </c>
       <c r="AP5" s="1">
-        <v>8.524102</v>
+        <v>8.5241019999999992</v>
       </c>
       <c r="AQ5" s="1">
-        <v>987.188000</v>
+        <v>987.18799999999999</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.638000</v>
+        <v>-102.63800000000001</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>30697.787704</v>
+        <v>30697.787703999998</v>
       </c>
       <c r="AU5" s="1">
-        <v>8.527163</v>
+        <v>8.5271629999999998</v>
       </c>
       <c r="AV5" s="1">
-        <v>998.520000</v>
+        <v>998.52</v>
       </c>
       <c r="AW5" s="1">
-        <v>-124.194000</v>
+        <v>-124.194</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>30708.876297</v>
+        <v>30708.876296999999</v>
       </c>
       <c r="AZ5" s="1">
-        <v>8.530243</v>
+        <v>8.5302430000000005</v>
       </c>
       <c r="BA5" s="1">
-        <v>1008.080000</v>
+        <v>1008.08</v>
       </c>
       <c r="BB5" s="1">
-        <v>-142.941000</v>
+        <v>-142.941</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>30719.859210</v>
+        <v>30719.859209999999</v>
       </c>
       <c r="BE5" s="1">
-        <v>8.533294</v>
+        <v>8.5332939999999997</v>
       </c>
       <c r="BF5" s="1">
-        <v>1053.140000</v>
+        <v>1053.1400000000001</v>
       </c>
       <c r="BG5" s="1">
-        <v>-227.910000</v>
+        <v>-227.91</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
         <v>30731.294445</v>
       </c>
       <c r="BJ5" s="1">
-        <v>8.536471</v>
+        <v>8.5364710000000006</v>
       </c>
       <c r="BK5" s="1">
-        <v>1132.300000</v>
+        <v>1132.3</v>
       </c>
       <c r="BL5" s="1">
-        <v>-364.653000</v>
+        <v>-364.65300000000002</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>30742.475287</v>
+        <v>30742.475287000001</v>
       </c>
       <c r="BO5" s="1">
-        <v>8.539576</v>
+        <v>8.5395760000000003</v>
       </c>
       <c r="BP5" s="1">
-        <v>1263.750000</v>
+        <v>1263.75</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-576.511000</v>
+        <v>-576.51099999999997</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
         <v>30752.866446</v>
       </c>
       <c r="BT5" s="1">
-        <v>8.542463</v>
+        <v>8.5424629999999997</v>
       </c>
       <c r="BU5" s="1">
-        <v>1411.570000</v>
+        <v>1411.57</v>
       </c>
       <c r="BV5" s="1">
-        <v>-802.634000</v>
+        <v>-802.63400000000001</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>30763.608542</v>
+        <v>30763.608542000002</v>
       </c>
       <c r="BY5" s="1">
-        <v>8.545447</v>
+        <v>8.5454469999999993</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1574.620000</v>
+        <v>1574.62</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1039.340000</v>
+        <v>-1039.3399999999999</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>30775.169056</v>
+        <v>30775.169055999999</v>
       </c>
       <c r="CD5" s="1">
-        <v>8.548658</v>
+        <v>8.5486579999999996</v>
       </c>
       <c r="CE5" s="1">
-        <v>1985.430000</v>
+        <v>1985.43</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1592.130000</v>
+        <v>-1592.13</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>30604.613732</v>
+        <v>30604.613732000002</v>
       </c>
       <c r="B6" s="1">
-        <v>8.501282</v>
+        <v>8.5012819999999998</v>
       </c>
       <c r="C6" s="1">
-        <v>905.566000</v>
+        <v>905.56600000000003</v>
       </c>
       <c r="D6" s="1">
-        <v>-197.215000</v>
+        <v>-197.215</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>30614.718724</v>
+        <v>30614.718723999998</v>
       </c>
       <c r="G6" s="1">
-        <v>8.504089</v>
+        <v>8.5040890000000005</v>
       </c>
       <c r="H6" s="1">
-        <v>922.623000</v>
+        <v>922.62300000000005</v>
       </c>
       <c r="I6" s="1">
-        <v>-167.153000</v>
+        <v>-167.15299999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>30625.193767</v>
+        <v>30625.193767000001</v>
       </c>
       <c r="L6" s="1">
-        <v>8.506998</v>
+        <v>8.5069979999999994</v>
       </c>
       <c r="M6" s="1">
-        <v>945.133000</v>
+        <v>945.13300000000004</v>
       </c>
       <c r="N6" s="1">
-        <v>-119.715000</v>
+        <v>-119.715</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>30635.722345</v>
+        <v>30635.722344999998</v>
       </c>
       <c r="Q6" s="1">
-        <v>8.509923</v>
+        <v>8.5099230000000006</v>
       </c>
       <c r="R6" s="1">
-        <v>951.648000</v>
+        <v>951.64800000000002</v>
       </c>
       <c r="S6" s="1">
-        <v>-104.264000</v>
+        <v>-104.264</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>30646.361499</v>
+        <v>30646.361498999999</v>
       </c>
       <c r="V6" s="1">
-        <v>8.512878</v>
+        <v>8.5128780000000006</v>
       </c>
       <c r="W6" s="1">
-        <v>958.136000</v>
+        <v>958.13599999999997</v>
       </c>
       <c r="X6" s="1">
-        <v>-90.367000</v>
+        <v>-90.367000000000004</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>30656.829069</v>
+        <v>30656.829068999999</v>
       </c>
       <c r="AA6" s="1">
-        <v>8.515786</v>
+        <v>8.5157860000000003</v>
       </c>
       <c r="AB6" s="1">
-        <v>965.190000</v>
+        <v>965.19</v>
       </c>
       <c r="AC6" s="1">
-        <v>-80.594400</v>
+        <v>-80.594399999999993</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>30666.681602</v>
+        <v>30666.681602000001</v>
       </c>
       <c r="AF6" s="1">
-        <v>8.518523</v>
+        <v>8.5185230000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>970.168000</v>
+        <v>970.16800000000001</v>
       </c>
       <c r="AH6" s="1">
-        <v>-80.101200</v>
+        <v>-80.101200000000006</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>30676.844163</v>
+        <v>30676.844163000002</v>
       </c>
       <c r="AK6" s="1">
-        <v>8.521346</v>
+        <v>8.5213459999999994</v>
       </c>
       <c r="AL6" s="1">
-        <v>978.018000</v>
+        <v>978.01800000000003</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.744700</v>
+        <v>-87.744699999999995</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>30687.126197</v>
+        <v>30687.126197000001</v>
       </c>
       <c r="AP6" s="1">
-        <v>8.524202</v>
+        <v>8.5242020000000007</v>
       </c>
       <c r="AQ6" s="1">
-        <v>987.194000</v>
+        <v>987.19399999999996</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.648000</v>
+        <v>-102.648</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>30698.154279</v>
+        <v>30698.154278999998</v>
       </c>
       <c r="AU6" s="1">
-        <v>8.527265</v>
+        <v>8.5272649999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>998.506000</v>
+        <v>998.50599999999997</v>
       </c>
       <c r="AW6" s="1">
-        <v>-124.167000</v>
+        <v>-124.167</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
         <v>30709.593976</v>
@@ -1659,315 +2075,315 @@
         <v>8.530443</v>
       </c>
       <c r="BA6" s="1">
-        <v>1008.090000</v>
+        <v>1008.09</v>
       </c>
       <c r="BB6" s="1">
-        <v>-142.949000</v>
+        <v>-142.94900000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>30720.579044</v>
+        <v>30720.579043999998</v>
       </c>
       <c r="BE6" s="1">
-        <v>8.533494</v>
+        <v>8.5334939999999992</v>
       </c>
       <c r="BF6" s="1">
-        <v>1053.150000</v>
+        <v>1053.1500000000001</v>
       </c>
       <c r="BG6" s="1">
-        <v>-227.931000</v>
+        <v>-227.93100000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>30731.670906</v>
+        <v>30731.670905999999</v>
       </c>
       <c r="BJ6" s="1">
-        <v>8.536575</v>
+        <v>8.5365749999999991</v>
       </c>
       <c r="BK6" s="1">
-        <v>1132.340000</v>
+        <v>1132.3399999999999</v>
       </c>
       <c r="BL6" s="1">
-        <v>-364.648000</v>
+        <v>-364.64800000000002</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>30742.897357</v>
+        <v>30742.897357000002</v>
       </c>
       <c r="BO6" s="1">
-        <v>8.539694</v>
+        <v>8.5396940000000008</v>
       </c>
       <c r="BP6" s="1">
-        <v>1263.680000</v>
+        <v>1263.68</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-576.505000</v>
+        <v>-576.505</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>30753.299951</v>
+        <v>30753.299951000001</v>
       </c>
       <c r="BT6" s="1">
-        <v>8.542583</v>
+        <v>8.5425830000000005</v>
       </c>
       <c r="BU6" s="1">
-        <v>1411.790000</v>
+        <v>1411.79</v>
       </c>
       <c r="BV6" s="1">
-        <v>-802.574000</v>
+        <v>-802.57399999999996</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
         <v>30764.339935</v>
       </c>
       <c r="BY6" s="1">
-        <v>8.545650</v>
+        <v>8.5456500000000002</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1574.500000</v>
+        <v>1574.5</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1039.360000</v>
+        <v>-1039.3599999999999</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>30775.399200</v>
+        <v>30775.3992</v>
       </c>
       <c r="CD6" s="1">
-        <v>8.548722</v>
+        <v>8.5487219999999997</v>
       </c>
       <c r="CE6" s="1">
-        <v>1985.500000</v>
+        <v>1985.5</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1591.500000</v>
+        <v>-1591.5</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
         <v>30604.955995</v>
       </c>
       <c r="B7" s="1">
-        <v>8.501377</v>
+        <v>8.5013769999999997</v>
       </c>
       <c r="C7" s="1">
-        <v>905.711000</v>
+        <v>905.71100000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>-197.179000</v>
+        <v>-197.179</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>30615.064438</v>
+        <v>30615.064438000001</v>
       </c>
       <c r="G7" s="1">
-        <v>8.504185</v>
+        <v>8.5041849999999997</v>
       </c>
       <c r="H7" s="1">
-        <v>922.958000</v>
+        <v>922.95799999999997</v>
       </c>
       <c r="I7" s="1">
-        <v>-167.606000</v>
+        <v>-167.60599999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>30625.610870</v>
+        <v>30625.61087</v>
       </c>
       <c r="L7" s="1">
-        <v>8.507114</v>
+        <v>8.5071139999999996</v>
       </c>
       <c r="M7" s="1">
-        <v>945.185000</v>
+        <v>945.18499999999995</v>
       </c>
       <c r="N7" s="1">
-        <v>-119.848000</v>
+        <v>-119.848</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>30636.153832</v>
       </c>
       <c r="Q7" s="1">
-        <v>8.510043</v>
+        <v>8.5100429999999996</v>
       </c>
       <c r="R7" s="1">
-        <v>951.614000</v>
+        <v>951.61400000000003</v>
       </c>
       <c r="S7" s="1">
-        <v>-104.267000</v>
+        <v>-104.267</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>30646.641244</v>
+        <v>30646.641243999999</v>
       </c>
       <c r="V7" s="1">
-        <v>8.512956</v>
+        <v>8.5129560000000009</v>
       </c>
       <c r="W7" s="1">
-        <v>958.030000</v>
+        <v>958.03</v>
       </c>
       <c r="X7" s="1">
-        <v>-90.312700</v>
+        <v>-90.312700000000007</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>30657.121213</v>
+        <v>30657.121212999999</v>
       </c>
       <c r="AA7" s="1">
-        <v>8.515867</v>
+        <v>8.5158670000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>965.166000</v>
+        <v>965.16600000000005</v>
       </c>
       <c r="AC7" s="1">
-        <v>-80.615600</v>
+        <v>-80.615600000000001</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>30667.023376</v>
+        <v>30667.023376000001</v>
       </c>
       <c r="AF7" s="1">
         <v>8.518618</v>
       </c>
       <c r="AG7" s="1">
-        <v>970.186000</v>
+        <v>970.18600000000004</v>
       </c>
       <c r="AH7" s="1">
-        <v>-80.086000</v>
+        <v>-80.085999999999999</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
         <v>30677.190338</v>
       </c>
       <c r="AK7" s="1">
-        <v>8.521442</v>
+        <v>8.5214420000000004</v>
       </c>
       <c r="AL7" s="1">
-        <v>978.013000</v>
+        <v>978.01300000000003</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.749600</v>
+        <v>-87.749600000000001</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>30687.486824</v>
       </c>
       <c r="AP7" s="1">
-        <v>8.524302</v>
+        <v>8.5243020000000005</v>
       </c>
       <c r="AQ7" s="1">
-        <v>987.179000</v>
+        <v>987.17899999999997</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.657000</v>
+        <v>-102.657</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>30698.884853</v>
       </c>
       <c r="AU7" s="1">
-        <v>8.527468</v>
+        <v>8.5274680000000007</v>
       </c>
       <c r="AV7" s="1">
-        <v>998.488000</v>
+        <v>998.48800000000006</v>
       </c>
       <c r="AW7" s="1">
-        <v>-124.165000</v>
+        <v>-124.16500000000001</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>30709.952088</v>
+        <v>30709.952087999998</v>
       </c>
       <c r="AZ7" s="1">
-        <v>8.530542</v>
+        <v>8.5305420000000005</v>
       </c>
       <c r="BA7" s="1">
-        <v>1008.080000</v>
+        <v>1008.08</v>
       </c>
       <c r="BB7" s="1">
-        <v>-142.965000</v>
+        <v>-142.965</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>30720.940489</v>
+        <v>30720.940489000001</v>
       </c>
       <c r="BE7" s="1">
         <v>8.533595</v>
       </c>
       <c r="BF7" s="1">
-        <v>1053.160000</v>
+        <v>1053.1600000000001</v>
       </c>
       <c r="BG7" s="1">
-        <v>-227.932000</v>
+        <v>-227.93199999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>30732.045387</v>
+        <v>30732.045386999998</v>
       </c>
       <c r="BJ7" s="1">
-        <v>8.536679</v>
+        <v>8.5366789999999995</v>
       </c>
       <c r="BK7" s="1">
-        <v>1132.320000</v>
+        <v>1132.32</v>
       </c>
       <c r="BL7" s="1">
-        <v>-364.698000</v>
+        <v>-364.69799999999998</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
         <v>30743.613083</v>
       </c>
       <c r="BO7" s="1">
-        <v>8.539893</v>
+        <v>8.5398929999999993</v>
       </c>
       <c r="BP7" s="1">
-        <v>1263.700000</v>
+        <v>1263.7</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-576.517000</v>
+        <v>-576.51700000000005</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
         <v>30754.019151</v>
@@ -1976,4639 +2392,4639 @@
         <v>8.542783</v>
       </c>
       <c r="BU7" s="1">
-        <v>1411.820000</v>
+        <v>1411.82</v>
       </c>
       <c r="BV7" s="1">
-        <v>-802.674000</v>
+        <v>-802.67399999999998</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>30764.498623</v>
+        <v>30764.498622999999</v>
       </c>
       <c r="BY7" s="1">
-        <v>8.545694</v>
+        <v>8.5456939999999992</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1574.470000</v>
+        <v>1574.47</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1039.320000</v>
+        <v>-1039.32</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
         <v>30775.918048</v>
       </c>
       <c r="CD7" s="1">
-        <v>8.548866</v>
+        <v>8.5488660000000003</v>
       </c>
       <c r="CE7" s="1">
-        <v>1986.780000</v>
+        <v>1986.78</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1592.360000</v>
+        <v>-1592.36</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>30605.302705</v>
+        <v>30605.302704999998</v>
       </c>
       <c r="B8" s="1">
-        <v>8.501473</v>
+        <v>8.5014730000000007</v>
       </c>
       <c r="C8" s="1">
-        <v>905.702000</v>
+        <v>905.702</v>
       </c>
       <c r="D8" s="1">
-        <v>-196.978000</v>
+        <v>-196.97800000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>30615.482564</v>
+        <v>30615.482564000002</v>
       </c>
       <c r="G8" s="1">
-        <v>8.504301</v>
+        <v>8.5043009999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>922.736000</v>
+        <v>922.73599999999999</v>
       </c>
       <c r="I8" s="1">
-        <v>-167.234000</v>
+        <v>-167.23400000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>30625.897590</v>
+        <v>30625.89759</v>
       </c>
       <c r="L8" s="1">
-        <v>8.507194</v>
+        <v>8.5071940000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>945.015000</v>
+        <v>945.01499999999999</v>
       </c>
       <c r="N8" s="1">
-        <v>-119.749000</v>
+        <v>-119.749</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>30636.419852</v>
+        <v>30636.419851999999</v>
       </c>
       <c r="Q8" s="1">
-        <v>8.510117</v>
+        <v>8.5101169999999993</v>
       </c>
       <c r="R8" s="1">
-        <v>951.606000</v>
+        <v>951.60599999999999</v>
       </c>
       <c r="S8" s="1">
-        <v>-104.251000</v>
+        <v>-104.251</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
         <v>30646.983516</v>
       </c>
       <c r="V8" s="1">
-        <v>8.513051</v>
+        <v>8.5130510000000008</v>
       </c>
       <c r="W8" s="1">
-        <v>958.068000</v>
+        <v>958.06799999999998</v>
       </c>
       <c r="X8" s="1">
-        <v>-90.366400</v>
+        <v>-90.366399999999999</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>30657.472394</v>
       </c>
       <c r="AA8" s="1">
-        <v>8.515965</v>
+        <v>8.5159649999999996</v>
       </c>
       <c r="AB8" s="1">
-        <v>965.141000</v>
+        <v>965.14099999999996</v>
       </c>
       <c r="AC8" s="1">
-        <v>-80.656000</v>
+        <v>-80.656000000000006</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>30667.367072</v>
+        <v>30667.367072000001</v>
       </c>
       <c r="AF8" s="1">
         <v>8.518713</v>
       </c>
       <c r="AG8" s="1">
-        <v>970.154000</v>
+        <v>970.154</v>
       </c>
       <c r="AH8" s="1">
-        <v>-80.140800</v>
+        <v>-80.140799999999999</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>30677.891222</v>
+        <v>30677.891221999998</v>
       </c>
       <c r="AK8" s="1">
-        <v>8.521636</v>
+        <v>8.5216360000000009</v>
       </c>
       <c r="AL8" s="1">
-        <v>978.019000</v>
+        <v>978.01900000000001</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.739700</v>
+        <v>-87.739699999999999</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>30688.206515</v>
+        <v>30688.206515000002</v>
       </c>
       <c r="AP8" s="1">
         <v>8.524502</v>
       </c>
       <c r="AQ8" s="1">
-        <v>987.171000</v>
+        <v>987.17100000000005</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.646000</v>
+        <v>-102.646</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>30699.274710</v>
+        <v>30699.274710000002</v>
       </c>
       <c r="AU8" s="1">
-        <v>8.527576</v>
+        <v>8.5275759999999998</v>
       </c>
       <c r="AV8" s="1">
-        <v>998.479000</v>
+        <v>998.47900000000004</v>
       </c>
       <c r="AW8" s="1">
-        <v>-124.182000</v>
+        <v>-124.182</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>30710.313175</v>
+        <v>30710.313174999999</v>
       </c>
       <c r="AZ8" s="1">
-        <v>8.530643</v>
+        <v>8.5306429999999995</v>
       </c>
       <c r="BA8" s="1">
-        <v>1008.080000</v>
+        <v>1008.08</v>
       </c>
       <c r="BB8" s="1">
-        <v>-142.959000</v>
+        <v>-142.959</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>30721.305016</v>
+        <v>30721.305015999998</v>
       </c>
       <c r="BE8" s="1">
-        <v>8.533696</v>
+        <v>8.5336960000000008</v>
       </c>
       <c r="BF8" s="1">
-        <v>1053.180000</v>
+        <v>1053.18</v>
       </c>
       <c r="BG8" s="1">
-        <v>-227.928000</v>
+        <v>-227.928</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>30732.751716</v>
+        <v>30732.751715999999</v>
       </c>
       <c r="BJ8" s="1">
-        <v>8.536875</v>
+        <v>8.5368750000000002</v>
       </c>
       <c r="BK8" s="1">
-        <v>1132.330000</v>
+        <v>1132.33</v>
       </c>
       <c r="BL8" s="1">
-        <v>-364.695000</v>
+        <v>-364.69499999999999</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
         <v>30743.734602</v>
       </c>
       <c r="BO8" s="1">
-        <v>8.539926</v>
+        <v>8.5399259999999995</v>
       </c>
       <c r="BP8" s="1">
-        <v>1263.750000</v>
+        <v>1263.75</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-576.502000</v>
+        <v>-576.50199999999995</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>30754.142654</v>
+        <v>30754.142653999999</v>
       </c>
       <c r="BT8" s="1">
-        <v>8.542817</v>
+        <v>8.5428169999999994</v>
       </c>
       <c r="BU8" s="1">
-        <v>1412.060000</v>
+        <v>1412.06</v>
       </c>
       <c r="BV8" s="1">
-        <v>-802.769000</v>
+        <v>-802.76900000000001</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>30764.923200</v>
+        <v>30764.923200000001</v>
       </c>
       <c r="BY8" s="1">
-        <v>8.545812</v>
+        <v>8.5458119999999997</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1574.420000</v>
+        <v>1574.42</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1039.440000</v>
+        <v>-1039.44</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>30776.435350</v>
+        <v>30776.43535</v>
       </c>
       <c r="CD8" s="1">
-        <v>8.549010</v>
+        <v>8.5490100000000009</v>
       </c>
       <c r="CE8" s="1">
-        <v>1987.060000</v>
+        <v>1987.06</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1590.840000</v>
+        <v>-1590.84</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>30605.733201</v>
+        <v>30605.733200999999</v>
       </c>
       <c r="B9" s="1">
-        <v>8.501593</v>
+        <v>8.5015929999999997</v>
       </c>
       <c r="C9" s="1">
-        <v>905.773000</v>
+        <v>905.77300000000002</v>
       </c>
       <c r="D9" s="1">
-        <v>-197.117000</v>
+        <v>-197.11699999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>30615.762803</v>
+        <v>30615.762803000001</v>
       </c>
       <c r="G9" s="1">
-        <v>8.504379</v>
+        <v>8.5043790000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>922.602000</v>
+        <v>922.60199999999998</v>
       </c>
       <c r="I9" s="1">
-        <v>-167.483000</v>
+        <v>-167.483</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>30626.243269</v>
+        <v>30626.243268999999</v>
       </c>
       <c r="L9" s="1">
-        <v>8.507290</v>
+        <v>8.5072899999999994</v>
       </c>
       <c r="M9" s="1">
-        <v>945.137000</v>
+        <v>945.13699999999994</v>
       </c>
       <c r="N9" s="1">
-        <v>-119.817000</v>
+        <v>-119.81699999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>30636.769864</v>
+        <v>30636.769864000002</v>
       </c>
       <c r="Q9" s="1">
-        <v>8.510214</v>
+        <v>8.5102139999999995</v>
       </c>
       <c r="R9" s="1">
-        <v>951.576000</v>
+        <v>951.57600000000002</v>
       </c>
       <c r="S9" s="1">
-        <v>-104.230000</v>
+        <v>-104.23</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>30647.325754</v>
+        <v>30647.325754000001</v>
       </c>
       <c r="V9" s="1">
-        <v>8.513146</v>
+        <v>8.5131460000000008</v>
       </c>
       <c r="W9" s="1">
-        <v>958.113000</v>
+        <v>958.11300000000006</v>
       </c>
       <c r="X9" s="1">
-        <v>-90.426000</v>
+        <v>-90.426000000000002</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>30658.046782</v>
+        <v>30658.046782000001</v>
       </c>
       <c r="AA9" s="1">
-        <v>8.516124</v>
+        <v>8.5161239999999996</v>
       </c>
       <c r="AB9" s="1">
-        <v>965.218000</v>
+        <v>965.21799999999996</v>
       </c>
       <c r="AC9" s="1">
-        <v>-80.597500</v>
+        <v>-80.597499999999997</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>30668.056510</v>
+        <v>30668.056509999999</v>
       </c>
       <c r="AF9" s="1">
-        <v>8.518905</v>
+        <v>8.5189050000000002</v>
       </c>
       <c r="AG9" s="1">
-        <v>970.126000</v>
+        <v>970.12599999999998</v>
       </c>
       <c r="AH9" s="1">
-        <v>-80.114100</v>
+        <v>-80.114099999999993</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>30678.238913</v>
+        <v>30678.238913000001</v>
       </c>
       <c r="AK9" s="1">
-        <v>8.521733</v>
+        <v>8.5217329999999993</v>
       </c>
       <c r="AL9" s="1">
-        <v>978.040000</v>
+        <v>978.04</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.772500</v>
+        <v>-87.772499999999994</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>30688.568104</v>
+        <v>30688.568104000002</v>
       </c>
       <c r="AP9" s="1">
-        <v>8.524602</v>
+        <v>8.5246019999999998</v>
       </c>
       <c r="AQ9" s="1">
-        <v>987.186000</v>
+        <v>987.18600000000004</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.662000</v>
+        <v>-102.66200000000001</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>30699.643237</v>
       </c>
       <c r="AU9" s="1">
-        <v>8.527679</v>
+        <v>8.5276789999999991</v>
       </c>
       <c r="AV9" s="1">
-        <v>998.490000</v>
+        <v>998.49</v>
       </c>
       <c r="AW9" s="1">
-        <v>-124.157000</v>
+        <v>-124.157</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>30710.974385</v>
+        <v>30710.974385000001</v>
       </c>
       <c r="AZ9" s="1">
-        <v>8.530826</v>
+        <v>8.5308259999999994</v>
       </c>
       <c r="BA9" s="1">
-        <v>1008.070000</v>
+        <v>1008.07</v>
       </c>
       <c r="BB9" s="1">
-        <v>-142.961000</v>
+        <v>-142.96100000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>30721.966712</v>
+        <v>30721.966712000001</v>
       </c>
       <c r="BE9" s="1">
-        <v>8.533880</v>
+        <v>8.5338799999999999</v>
       </c>
       <c r="BF9" s="1">
-        <v>1053.160000</v>
+        <v>1053.1600000000001</v>
       </c>
       <c r="BG9" s="1">
-        <v>-227.944000</v>
+        <v>-227.94399999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>30733.194664</v>
+        <v>30733.194663999999</v>
       </c>
       <c r="BJ9" s="1">
-        <v>8.536999</v>
+        <v>8.5369989999999998</v>
       </c>
       <c r="BK9" s="1">
-        <v>1132.330000</v>
+        <v>1132.33</v>
       </c>
       <c r="BL9" s="1">
-        <v>-364.697000</v>
+        <v>-364.697</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>30744.145786</v>
+        <v>30744.145786000001</v>
       </c>
       <c r="BO9" s="1">
-        <v>8.540040</v>
+        <v>8.5400399999999994</v>
       </c>
       <c r="BP9" s="1">
-        <v>1263.730000</v>
+        <v>1263.73</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-576.531000</v>
+        <v>-576.53099999999995</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>30754.580124</v>
       </c>
       <c r="BT9" s="1">
-        <v>8.542939</v>
+        <v>8.5429390000000005</v>
       </c>
       <c r="BU9" s="1">
-        <v>1412.070000</v>
+        <v>1412.07</v>
       </c>
       <c r="BV9" s="1">
-        <v>-802.856000</v>
+        <v>-802.85599999999999</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
         <v>30765.342814</v>
       </c>
       <c r="BY9" s="1">
-        <v>8.545929</v>
+        <v>8.5459289999999992</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1574.430000</v>
+        <v>1574.43</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1039.430000</v>
+        <v>-1039.43</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>30776.955150</v>
+        <v>30776.955150000002</v>
       </c>
       <c r="CD9" s="1">
-        <v>8.549154</v>
+        <v>8.5491539999999997</v>
       </c>
       <c r="CE9" s="1">
-        <v>1985.700000</v>
+        <v>1985.7</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1590.260000</v>
+        <v>-1590.26</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>30606.006528</v>
+        <v>30606.006528000002</v>
       </c>
       <c r="B10" s="1">
-        <v>8.501668</v>
+        <v>8.5016680000000004</v>
       </c>
       <c r="C10" s="1">
-        <v>905.684000</v>
+        <v>905.68399999999997</v>
       </c>
       <c r="D10" s="1">
-        <v>-197.188000</v>
+        <v>-197.18799999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>30616.107027</v>
+        <v>30616.107026999998</v>
       </c>
       <c r="G10" s="1">
-        <v>8.504474</v>
+        <v>8.5044740000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>922.789000</v>
+        <v>922.78899999999999</v>
       </c>
       <c r="I10" s="1">
-        <v>-167.529000</v>
+        <v>-167.529</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>30626.590501</v>
+        <v>30626.590500999999</v>
       </c>
       <c r="L10" s="1">
-        <v>8.507386</v>
+        <v>8.5073860000000003</v>
       </c>
       <c r="M10" s="1">
-        <v>945.074000</v>
+        <v>945.07399999999996</v>
       </c>
       <c r="N10" s="1">
-        <v>-119.935000</v>
+        <v>-119.935</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
         <v>30637.115608</v>
       </c>
       <c r="Q10" s="1">
-        <v>8.510310</v>
+        <v>8.5103100000000005</v>
       </c>
       <c r="R10" s="1">
-        <v>951.617000</v>
+        <v>951.61699999999996</v>
       </c>
       <c r="S10" s="1">
-        <v>-104.226000</v>
+        <v>-104.226</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>30648.013673</v>
+        <v>30648.013673000001</v>
       </c>
       <c r="V10" s="1">
-        <v>8.513337</v>
+        <v>8.5133369999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>958.063000</v>
+        <v>958.06299999999999</v>
       </c>
       <c r="X10" s="1">
-        <v>-90.344900</v>
+        <v>-90.344899999999996</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>30658.167972</v>
+        <v>30658.167971999999</v>
       </c>
       <c r="AA10" s="1">
-        <v>8.516158</v>
+        <v>8.5161580000000008</v>
       </c>
       <c r="AB10" s="1">
-        <v>965.121000</v>
+        <v>965.12099999999998</v>
       </c>
       <c r="AC10" s="1">
-        <v>-80.642500</v>
+        <v>-80.642499999999998</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>30668.398783</v>
+        <v>30668.398783000001</v>
       </c>
       <c r="AF10" s="1">
-        <v>8.519000</v>
+        <v>8.5190000000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>970.166000</v>
+        <v>970.16600000000005</v>
       </c>
       <c r="AH10" s="1">
-        <v>-80.088400</v>
+        <v>-80.088399999999993</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>30678.585585</v>
+        <v>30678.585585000001</v>
       </c>
       <c r="AK10" s="1">
-        <v>8.521829</v>
+        <v>8.5218290000000003</v>
       </c>
       <c r="AL10" s="1">
-        <v>978.019000</v>
+        <v>978.01900000000001</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.764700</v>
+        <v>-87.764700000000005</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>30688.925717</v>
+        <v>30688.925716999998</v>
       </c>
       <c r="AP10" s="1">
-        <v>8.524702</v>
+        <v>8.5247019999999996</v>
       </c>
       <c r="AQ10" s="1">
-        <v>987.181000</v>
+        <v>987.18100000000004</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.657000</v>
+        <v>-102.657</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>30700.314820</v>
+        <v>30700.31482</v>
       </c>
       <c r="AU10" s="1">
-        <v>8.527865</v>
+        <v>8.5278650000000003</v>
       </c>
       <c r="AV10" s="1">
-        <v>998.514000</v>
+        <v>998.51400000000001</v>
       </c>
       <c r="AW10" s="1">
-        <v>-124.184000</v>
+        <v>-124.184</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>30711.386053</v>
+        <v>30711.386052999998</v>
       </c>
       <c r="AZ10" s="1">
-        <v>8.530941</v>
+        <v>8.5309410000000003</v>
       </c>
       <c r="BA10" s="1">
-        <v>1008.090000</v>
+        <v>1008.09</v>
       </c>
       <c r="BB10" s="1">
-        <v>-142.921000</v>
+        <v>-142.92099999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>30722.418535</v>
+        <v>30722.418535000001</v>
       </c>
       <c r="BE10" s="1">
-        <v>8.534005</v>
+        <v>8.5340050000000005</v>
       </c>
       <c r="BF10" s="1">
-        <v>1053.170000</v>
+        <v>1053.17</v>
       </c>
       <c r="BG10" s="1">
-        <v>-227.951000</v>
+        <v>-227.95099999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>30733.599352</v>
+        <v>30733.599352000001</v>
       </c>
       <c r="BJ10" s="1">
-        <v>8.537111</v>
+        <v>8.5371109999999994</v>
       </c>
       <c r="BK10" s="1">
-        <v>1132.320000</v>
+        <v>1132.32</v>
       </c>
       <c r="BL10" s="1">
-        <v>-364.696000</v>
+        <v>-364.69600000000003</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>30744.540603</v>
+        <v>30744.540603000001</v>
       </c>
       <c r="BO10" s="1">
-        <v>8.540150</v>
+        <v>8.5401500000000006</v>
       </c>
       <c r="BP10" s="1">
-        <v>1263.730000</v>
+        <v>1263.73</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-576.504000</v>
+        <v>-576.50400000000002</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
         <v>30755.007212</v>
       </c>
       <c r="BT10" s="1">
-        <v>8.543058</v>
+        <v>8.5430580000000003</v>
       </c>
       <c r="BU10" s="1">
-        <v>1412.180000</v>
+        <v>1412.18</v>
       </c>
       <c r="BV10" s="1">
-        <v>-802.991000</v>
+        <v>-802.99099999999999</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>30765.788717</v>
+        <v>30765.788716999999</v>
       </c>
       <c r="BY10" s="1">
-        <v>8.546052</v>
+        <v>8.5460519999999995</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1574.510000</v>
+        <v>1574.51</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1039.430000</v>
+        <v>-1039.43</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>30777.470526</v>
+        <v>30777.470526000001</v>
       </c>
       <c r="CD10" s="1">
-        <v>8.549297</v>
+        <v>8.5492969999999993</v>
       </c>
       <c r="CE10" s="1">
-        <v>1986.240000</v>
+        <v>1986.24</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1590.560000</v>
+        <v>-1590.56</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>30606.345760</v>
+        <v>30606.34576</v>
       </c>
       <c r="B11" s="1">
-        <v>8.501763</v>
+        <v>8.5017630000000004</v>
       </c>
       <c r="C11" s="1">
-        <v>905.814000</v>
+        <v>905.81399999999996</v>
       </c>
       <c r="D11" s="1">
-        <v>-197.162000</v>
+        <v>-197.16200000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>30616.449764</v>
+        <v>30616.449764000001</v>
       </c>
       <c r="G11" s="1">
         <v>8.504569</v>
       </c>
       <c r="H11" s="1">
-        <v>922.309000</v>
+        <v>922.30899999999997</v>
       </c>
       <c r="I11" s="1">
-        <v>-167.607000</v>
+        <v>-167.607</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>30627.288340</v>
+        <v>30627.288339999999</v>
       </c>
       <c r="L11" s="1">
-        <v>8.507580</v>
+        <v>8.5075800000000008</v>
       </c>
       <c r="M11" s="1">
-        <v>945.095000</v>
+        <v>945.09500000000003</v>
       </c>
       <c r="N11" s="1">
-        <v>-119.674000</v>
+        <v>-119.67400000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
         <v>30637.813478</v>
       </c>
       <c r="Q11" s="1">
-        <v>8.510504</v>
+        <v>8.5105039999999992</v>
       </c>
       <c r="R11" s="1">
-        <v>951.624000</v>
+        <v>951.62400000000002</v>
       </c>
       <c r="S11" s="1">
-        <v>-104.243000</v>
+        <v>-104.24299999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>30648.357400</v>
+        <v>30648.357400000001</v>
       </c>
       <c r="V11" s="1">
-        <v>8.513433</v>
+        <v>8.5134329999999991</v>
       </c>
       <c r="W11" s="1">
-        <v>958.135000</v>
+        <v>958.13499999999999</v>
       </c>
       <c r="X11" s="1">
-        <v>-90.404000</v>
+        <v>-90.403999999999996</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>30658.516459</v>
+        <v>30658.516458999999</v>
       </c>
       <c r="AA11" s="1">
-        <v>8.516255</v>
+        <v>8.5162549999999992</v>
       </c>
       <c r="AB11" s="1">
-        <v>965.285000</v>
+        <v>965.28499999999997</v>
       </c>
       <c r="AC11" s="1">
-        <v>-80.560800</v>
+        <v>-80.5608</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
         <v>30668.741983</v>
       </c>
       <c r="AF11" s="1">
-        <v>8.519095</v>
+        <v>8.5190950000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>970.171000</v>
+        <v>970.17100000000005</v>
       </c>
       <c r="AH11" s="1">
-        <v>-80.084300</v>
+        <v>-80.084299999999999</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
         <v>30679.240801</v>
       </c>
       <c r="AK11" s="1">
-        <v>8.522011</v>
+        <v>8.5220109999999991</v>
       </c>
       <c r="AL11" s="1">
-        <v>978.027000</v>
+        <v>978.02700000000004</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.742100</v>
+        <v>-87.742099999999994</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>30689.600276</v>
+        <v>30689.600276000001</v>
       </c>
       <c r="AP11" s="1">
-        <v>8.524889</v>
+        <v>8.5248889999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>987.189000</v>
+        <v>987.18899999999996</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.661000</v>
+        <v>-102.661</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>30700.734435</v>
+        <v>30700.734434999998</v>
       </c>
       <c r="AU11" s="1">
-        <v>8.527982</v>
+        <v>8.5279819999999997</v>
       </c>
       <c r="AV11" s="1">
-        <v>998.477000</v>
+        <v>998.47699999999998</v>
       </c>
       <c r="AW11" s="1">
-        <v>-124.194000</v>
+        <v>-124.194</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
         <v>30711.768934</v>
       </c>
       <c r="AZ11" s="1">
-        <v>8.531047</v>
+        <v>8.5310469999999992</v>
       </c>
       <c r="BA11" s="1">
-        <v>1008.110000</v>
+        <v>1008.11</v>
       </c>
       <c r="BB11" s="1">
-        <v>-142.943000</v>
+        <v>-142.94300000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
         <v>30722.781606</v>
       </c>
       <c r="BE11" s="1">
-        <v>8.534106</v>
+        <v>8.5341059999999995</v>
       </c>
       <c r="BF11" s="1">
-        <v>1053.170000</v>
+        <v>1053.17</v>
       </c>
       <c r="BG11" s="1">
-        <v>-227.928000</v>
+        <v>-227.928</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>30733.972375</v>
+        <v>30733.972375000001</v>
       </c>
       <c r="BJ11" s="1">
-        <v>8.537215</v>
+        <v>8.5372149999999998</v>
       </c>
       <c r="BK11" s="1">
-        <v>1132.320000</v>
+        <v>1132.32</v>
       </c>
       <c r="BL11" s="1">
-        <v>-364.717000</v>
+        <v>-364.71699999999998</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>30744.961706</v>
+        <v>30744.961705999998</v>
       </c>
       <c r="BO11" s="1">
-        <v>8.540267</v>
+        <v>8.5402670000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1263.750000</v>
+        <v>1263.75</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-576.538000</v>
+        <v>-576.53800000000001</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>30755.422331</v>
+        <v>30755.422331000002</v>
       </c>
       <c r="BT11" s="1">
-        <v>8.543173</v>
+        <v>8.5431729999999995</v>
       </c>
       <c r="BU11" s="1">
-        <v>1412.150000</v>
+        <v>1412.15</v>
       </c>
       <c r="BV11" s="1">
-        <v>-803.170000</v>
+        <v>-803.17</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
         <v>30766.209853</v>
       </c>
       <c r="BY11" s="1">
-        <v>8.546169</v>
+        <v>8.5461690000000008</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1574.540000</v>
+        <v>1574.54</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1039.400000</v>
+        <v>-1039.4000000000001</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>30778.023037</v>
+        <v>30778.023036999999</v>
       </c>
       <c r="CD11" s="1">
-        <v>8.549451</v>
+        <v>8.5494509999999995</v>
       </c>
       <c r="CE11" s="1">
-        <v>1987.190000</v>
+        <v>1987.19</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1590.980000</v>
+        <v>-1590.98</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>30606.692008</v>
+        <v>30606.692008000002</v>
       </c>
       <c r="B12" s="1">
-        <v>8.501859</v>
+        <v>8.5018589999999996</v>
       </c>
       <c r="C12" s="1">
-        <v>905.612000</v>
+        <v>905.61199999999997</v>
       </c>
       <c r="D12" s="1">
-        <v>-197.167000</v>
+        <v>-197.167</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>30617.139203</v>
+        <v>30617.139202999999</v>
       </c>
       <c r="G12" s="1">
-        <v>8.504761</v>
+        <v>8.5047610000000002</v>
       </c>
       <c r="H12" s="1">
-        <v>922.763000</v>
+        <v>922.76300000000003</v>
       </c>
       <c r="I12" s="1">
-        <v>-167.437000</v>
+        <v>-167.43700000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>30627.637256</v>
+        <v>30627.637256000002</v>
       </c>
       <c r="L12" s="1">
-        <v>8.507677</v>
+        <v>8.5076769999999993</v>
       </c>
       <c r="M12" s="1">
-        <v>945.137000</v>
+        <v>945.13699999999994</v>
       </c>
       <c r="N12" s="1">
-        <v>-119.763000</v>
+        <v>-119.76300000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>30638.164150</v>
+        <v>30638.164150000001</v>
       </c>
       <c r="Q12" s="1">
-        <v>8.510601</v>
+        <v>8.5106009999999994</v>
       </c>
       <c r="R12" s="1">
-        <v>951.652000</v>
+        <v>951.65200000000004</v>
       </c>
       <c r="S12" s="1">
-        <v>-104.245000</v>
+        <v>-104.245</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>30648.699144</v>
+        <v>30648.699143999998</v>
       </c>
       <c r="V12" s="1">
-        <v>8.513528</v>
+        <v>8.5135280000000009</v>
       </c>
       <c r="W12" s="1">
-        <v>958.019000</v>
+        <v>958.01900000000001</v>
       </c>
       <c r="X12" s="1">
-        <v>-90.365700</v>
+        <v>-90.365700000000004</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>30659.175674</v>
+        <v>30659.175673999998</v>
       </c>
       <c r="AA12" s="1">
-        <v>8.516438</v>
+        <v>8.5164380000000008</v>
       </c>
       <c r="AB12" s="1">
-        <v>965.237000</v>
+        <v>965.23699999999997</v>
       </c>
       <c r="AC12" s="1">
-        <v>-80.607500</v>
+        <v>-80.607500000000002</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
         <v>30669.398189</v>
       </c>
       <c r="AF12" s="1">
-        <v>8.519277</v>
+        <v>8.5192770000000007</v>
       </c>
       <c r="AG12" s="1">
-        <v>970.150000</v>
+        <v>970.15</v>
       </c>
       <c r="AH12" s="1">
-        <v>-80.089700</v>
+        <v>-80.089699999999993</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
         <v>30679.631684</v>
       </c>
       <c r="AK12" s="1">
-        <v>8.522120</v>
+        <v>8.5221199999999993</v>
       </c>
       <c r="AL12" s="1">
-        <v>978.036000</v>
+        <v>978.03599999999994</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.756800</v>
+        <v>-87.756799999999998</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>30690.031762</v>
+        <v>30690.031761999999</v>
       </c>
       <c r="AP12" s="1">
-        <v>8.525009</v>
+        <v>8.5250090000000007</v>
       </c>
       <c r="AQ12" s="1">
-        <v>987.188000</v>
+        <v>987.18799999999999</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.658000</v>
+        <v>-102.658</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>30701.100978</v>
+        <v>30701.100977999999</v>
       </c>
       <c r="AU12" s="1">
-        <v>8.528084</v>
+        <v>8.5280839999999998</v>
       </c>
       <c r="AV12" s="1">
-        <v>998.506000</v>
+        <v>998.50599999999997</v>
       </c>
       <c r="AW12" s="1">
-        <v>-124.173000</v>
+        <v>-124.173</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>30712.131045</v>
+        <v>30712.131044999998</v>
       </c>
       <c r="AZ12" s="1">
         <v>8.531148</v>
       </c>
       <c r="BA12" s="1">
-        <v>1008.100000</v>
+        <v>1008.1</v>
       </c>
       <c r="BB12" s="1">
-        <v>-142.940000</v>
+        <v>-142.94</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
         <v>30723.147158</v>
       </c>
       <c r="BE12" s="1">
-        <v>8.534208</v>
+        <v>8.5342079999999996</v>
       </c>
       <c r="BF12" s="1">
-        <v>1053.180000</v>
+        <v>1053.18</v>
       </c>
       <c r="BG12" s="1">
-        <v>-227.924000</v>
+        <v>-227.92400000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>30734.403367</v>
+        <v>30734.403366999999</v>
       </c>
       <c r="BJ12" s="1">
-        <v>8.537334</v>
+        <v>8.5373339999999995</v>
       </c>
       <c r="BK12" s="1">
-        <v>1132.320000</v>
+        <v>1132.32</v>
       </c>
       <c r="BL12" s="1">
-        <v>-364.699000</v>
+        <v>-364.69900000000001</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>30745.359033</v>
+        <v>30745.359033000001</v>
       </c>
       <c r="BO12" s="1">
-        <v>8.540378</v>
+        <v>8.5403780000000005</v>
       </c>
       <c r="BP12" s="1">
-        <v>1263.720000</v>
+        <v>1263.72</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-576.511000</v>
+        <v>-576.51099999999997</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
         <v>30755.850906</v>
       </c>
       <c r="BT12" s="1">
-        <v>8.543292</v>
+        <v>8.5432919999999992</v>
       </c>
       <c r="BU12" s="1">
-        <v>1412.130000</v>
+        <v>1412.13</v>
       </c>
       <c r="BV12" s="1">
-        <v>-803.245000</v>
+        <v>-803.245</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>30766.634398</v>
+        <v>30766.634397999998</v>
       </c>
       <c r="BY12" s="1">
-        <v>8.546287</v>
+        <v>8.5462869999999995</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1574.500000</v>
+        <v>1574.5</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1039.500000</v>
+        <v>-1039.5</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>30778.553756</v>
+        <v>30778.553756000001</v>
       </c>
       <c r="CD12" s="1">
-        <v>8.549598</v>
+        <v>8.5495979999999996</v>
       </c>
       <c r="CE12" s="1">
-        <v>1985.520000</v>
+        <v>1985.52</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1590.520000</v>
+        <v>-1590.52</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>30607.374959</v>
+        <v>30607.374959000001</v>
       </c>
       <c r="B13" s="1">
-        <v>8.502049</v>
+        <v>8.5020489999999995</v>
       </c>
       <c r="C13" s="1">
-        <v>905.626000</v>
+        <v>905.62599999999998</v>
       </c>
       <c r="D13" s="1">
-        <v>-197.416000</v>
+        <v>-197.416</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>30617.485905</v>
+        <v>30617.485905000001</v>
       </c>
       <c r="G13" s="1">
-        <v>8.504857</v>
+        <v>8.5048569999999994</v>
       </c>
       <c r="H13" s="1">
-        <v>923.316000</v>
+        <v>923.31600000000003</v>
       </c>
       <c r="I13" s="1">
-        <v>-167.787000</v>
+        <v>-167.78700000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <v>30627.983237</v>
       </c>
       <c r="L13" s="1">
-        <v>8.507773</v>
+        <v>8.5077730000000003</v>
       </c>
       <c r="M13" s="1">
-        <v>945.200000</v>
+        <v>945.2</v>
       </c>
       <c r="N13" s="1">
-        <v>-119.590000</v>
+        <v>-119.59</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>30638.508837</v>
+        <v>30638.508837000001</v>
       </c>
       <c r="Q13" s="1">
-        <v>8.510697</v>
+        <v>8.5106970000000004</v>
       </c>
       <c r="R13" s="1">
-        <v>951.652000</v>
+        <v>951.65200000000004</v>
       </c>
       <c r="S13" s="1">
-        <v>-104.307000</v>
+        <v>-104.307</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>30649.352376</v>
+        <v>30649.352375999999</v>
       </c>
       <c r="V13" s="1">
-        <v>8.513709</v>
+        <v>8.5137090000000004</v>
       </c>
       <c r="W13" s="1">
-        <v>958.032000</v>
+        <v>958.03200000000004</v>
       </c>
       <c r="X13" s="1">
-        <v>-90.353400</v>
+        <v>-90.353399999999993</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>30659.563515</v>
+        <v>30659.563515000002</v>
       </c>
       <c r="AA13" s="1">
-        <v>8.516545</v>
+        <v>8.5165450000000007</v>
       </c>
       <c r="AB13" s="1">
-        <v>965.219000</v>
+        <v>965.21900000000005</v>
       </c>
       <c r="AC13" s="1">
-        <v>-80.641000</v>
+        <v>-80.641000000000005</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>30669.773692</v>
+        <v>30669.773691999999</v>
       </c>
       <c r="AF13" s="1">
-        <v>8.519382</v>
+        <v>8.5193820000000002</v>
       </c>
       <c r="AG13" s="1">
-        <v>970.172000</v>
+        <v>970.17200000000003</v>
       </c>
       <c r="AH13" s="1">
-        <v>-80.109100</v>
+        <v>-80.109099999999998</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>30679.980336</v>
+        <v>30679.980336000001</v>
       </c>
       <c r="AK13" s="1">
-        <v>8.522217</v>
+        <v>8.5222169999999995</v>
       </c>
       <c r="AL13" s="1">
-        <v>978.042000</v>
+        <v>978.04200000000003</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.765700</v>
+        <v>-87.765699999999995</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>30690.419633</v>
+        <v>30690.419633000001</v>
       </c>
       <c r="AP13" s="1">
-        <v>8.525117</v>
+        <v>8.5251169999999998</v>
       </c>
       <c r="AQ13" s="1">
-        <v>987.169000</v>
+        <v>987.16899999999998</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.647000</v>
+        <v>-102.64700000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>30701.464050</v>
+        <v>30701.464049999999</v>
       </c>
       <c r="AU13" s="1">
-        <v>8.528184</v>
+        <v>8.5281839999999995</v>
       </c>
       <c r="AV13" s="1">
-        <v>998.509000</v>
+        <v>998.50900000000001</v>
       </c>
       <c r="AW13" s="1">
-        <v>-124.168000</v>
+        <v>-124.16800000000001</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>30712.564020</v>
+        <v>30712.564020000002</v>
       </c>
       <c r="AZ13" s="1">
-        <v>8.531268</v>
+        <v>8.5312680000000007</v>
       </c>
       <c r="BA13" s="1">
-        <v>1008.110000</v>
+        <v>1008.11</v>
       </c>
       <c r="BB13" s="1">
-        <v>-142.923000</v>
+        <v>-142.923</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>30723.577227</v>
+        <v>30723.577227000002</v>
       </c>
       <c r="BE13" s="1">
-        <v>8.534327</v>
+        <v>8.5343269999999993</v>
       </c>
       <c r="BF13" s="1">
-        <v>1053.140000</v>
+        <v>1053.1400000000001</v>
       </c>
       <c r="BG13" s="1">
-        <v>-227.951000</v>
+        <v>-227.95099999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>30734.749583</v>
+        <v>30734.749583000001</v>
       </c>
       <c r="BJ13" s="1">
-        <v>8.537430</v>
+        <v>8.5374300000000005</v>
       </c>
       <c r="BK13" s="1">
-        <v>1132.300000</v>
+        <v>1132.3</v>
       </c>
       <c r="BL13" s="1">
-        <v>-364.692000</v>
+        <v>-364.69200000000001</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>30745.783608</v>
+        <v>30745.783608000002</v>
       </c>
       <c r="BO13" s="1">
-        <v>8.540495</v>
+        <v>8.5404949999999999</v>
       </c>
       <c r="BP13" s="1">
-        <v>1263.710000</v>
+        <v>1263.71</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-576.517000</v>
+        <v>-576.51700000000005</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>30756.280907</v>
       </c>
       <c r="BT13" s="1">
-        <v>8.543411</v>
+        <v>8.5434110000000008</v>
       </c>
       <c r="BU13" s="1">
-        <v>1411.950000</v>
+        <v>1411.95</v>
       </c>
       <c r="BV13" s="1">
-        <v>-803.339000</v>
+        <v>-803.33900000000006</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>30767.082807</v>
+        <v>30767.082806999999</v>
       </c>
       <c r="BY13" s="1">
-        <v>8.546412</v>
+        <v>8.5464120000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1574.530000</v>
+        <v>1574.53</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1039.330000</v>
+        <v>-1039.33</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
         <v>30779.071581</v>
       </c>
       <c r="CD13" s="1">
-        <v>8.549742</v>
+        <v>8.5497420000000002</v>
       </c>
       <c r="CE13" s="1">
-        <v>1985.270000</v>
+        <v>1985.27</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1591.920000</v>
+        <v>-1591.92</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
         <v>30607.712239</v>
       </c>
       <c r="B14" s="1">
-        <v>8.502142</v>
+        <v>8.5021419999999992</v>
       </c>
       <c r="C14" s="1">
-        <v>905.756000</v>
+        <v>905.75599999999997</v>
       </c>
       <c r="D14" s="1">
-        <v>-197.528000</v>
+        <v>-197.52799999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>30617.834104</v>
+        <v>30617.834104000001</v>
       </c>
       <c r="G14" s="1">
-        <v>8.504954</v>
+        <v>8.5049539999999997</v>
       </c>
       <c r="H14" s="1">
-        <v>922.616000</v>
+        <v>922.61599999999999</v>
       </c>
       <c r="I14" s="1">
-        <v>-167.579000</v>
+        <v>-167.57900000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <v>30628.633026</v>
       </c>
       <c r="L14" s="1">
-        <v>8.507954</v>
+        <v>8.5079539999999998</v>
       </c>
       <c r="M14" s="1">
-        <v>944.949000</v>
+        <v>944.94899999999996</v>
       </c>
       <c r="N14" s="1">
-        <v>-119.757000</v>
+        <v>-119.75700000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>30639.164054</v>
+        <v>30639.164054000001</v>
       </c>
       <c r="Q14" s="1">
-        <v>8.510879</v>
+        <v>8.5108789999999992</v>
       </c>
       <c r="R14" s="1">
-        <v>951.636000</v>
+        <v>951.63599999999997</v>
       </c>
       <c r="S14" s="1">
-        <v>-104.270000</v>
+        <v>-104.27</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>30649.730359</v>
+        <v>30649.730359000001</v>
       </c>
       <c r="V14" s="1">
         <v>8.513814</v>
       </c>
       <c r="W14" s="1">
-        <v>958.172000</v>
+        <v>958.17200000000003</v>
       </c>
       <c r="X14" s="1">
-        <v>-90.337300</v>
+        <v>-90.337299999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>30659.911209</v>
+        <v>30659.911209000002</v>
       </c>
       <c r="AA14" s="1">
-        <v>8.516642</v>
+        <v>8.5166419999999992</v>
       </c>
       <c r="AB14" s="1">
-        <v>965.151000</v>
+        <v>965.15099999999995</v>
       </c>
       <c r="AC14" s="1">
-        <v>-80.644300</v>
+        <v>-80.644300000000001</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
         <v>30670.118381</v>
       </c>
       <c r="AF14" s="1">
-        <v>8.519477</v>
+        <v>8.5194770000000002</v>
       </c>
       <c r="AG14" s="1">
-        <v>970.169000</v>
+        <v>970.16899999999998</v>
       </c>
       <c r="AH14" s="1">
-        <v>-80.088800</v>
+        <v>-80.088800000000006</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
         <v>30680.327567</v>
       </c>
       <c r="AK14" s="1">
-        <v>8.522313</v>
+        <v>8.5223130000000005</v>
       </c>
       <c r="AL14" s="1">
-        <v>978.049000</v>
+        <v>978.04899999999998</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.755900</v>
+        <v>-87.755899999999997</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>30690.773777</v>
+        <v>30690.773776999999</v>
       </c>
       <c r="AP14" s="1">
-        <v>8.525215</v>
+        <v>8.5252149999999993</v>
       </c>
       <c r="AQ14" s="1">
-        <v>987.178000</v>
+        <v>987.178</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.653000</v>
+        <v>-102.65300000000001</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>30701.893089</v>
+        <v>30701.893089000001</v>
       </c>
       <c r="AU14" s="1">
-        <v>8.528304</v>
+        <v>8.5283040000000003</v>
       </c>
       <c r="AV14" s="1">
-        <v>998.492000</v>
+        <v>998.49199999999996</v>
       </c>
       <c r="AW14" s="1">
-        <v>-124.169000</v>
+        <v>-124.169</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
         <v>30712.848264</v>
       </c>
       <c r="AZ14" s="1">
-        <v>8.531347</v>
+        <v>8.5313470000000002</v>
       </c>
       <c r="BA14" s="1">
-        <v>1008.080000</v>
+        <v>1008.08</v>
       </c>
       <c r="BB14" s="1">
-        <v>-142.915000</v>
+        <v>-142.91499999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>30723.864373</v>
       </c>
       <c r="BE14" s="1">
-        <v>8.534407</v>
+        <v>8.5344069999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1053.170000</v>
+        <v>1053.17</v>
       </c>
       <c r="BG14" s="1">
-        <v>-227.908000</v>
+        <v>-227.90799999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>30735.125093</v>
+        <v>30735.125092999999</v>
       </c>
       <c r="BJ14" s="1">
-        <v>8.537535</v>
+        <v>8.5375350000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1132.310000</v>
+        <v>1132.31</v>
       </c>
       <c r="BL14" s="1">
-        <v>-364.702000</v>
+        <v>-364.702</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>30746.179879</v>
+        <v>30746.179878999999</v>
       </c>
       <c r="BO14" s="1">
-        <v>8.540606</v>
+        <v>8.5406060000000004</v>
       </c>
       <c r="BP14" s="1">
-        <v>1263.720000</v>
+        <v>1263.72</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-576.556000</v>
+        <v>-576.55600000000004</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>30756.696094</v>
+        <v>30756.696093999999</v>
       </c>
       <c r="BT14" s="1">
-        <v>8.543527</v>
+        <v>8.5435269999999992</v>
       </c>
       <c r="BU14" s="1">
-        <v>1411.920000</v>
+        <v>1411.92</v>
       </c>
       <c r="BV14" s="1">
-        <v>-803.402000</v>
+        <v>-803.40200000000004</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>30767.514796</v>
+        <v>30767.514795999999</v>
       </c>
       <c r="BY14" s="1">
-        <v>8.546532</v>
+        <v>8.5465319999999991</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1574.560000</v>
+        <v>1574.56</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1039.380000</v>
+        <v>-1039.3800000000001</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>30779.591389</v>
+        <v>30779.591389000001</v>
       </c>
       <c r="CD14" s="1">
-        <v>8.549886</v>
+        <v>8.5498860000000008</v>
       </c>
       <c r="CE14" s="1">
-        <v>1986.600000</v>
+        <v>1986.6</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1592.760000</v>
+        <v>-1592.76</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>30608.103086</v>
+        <v>30608.103085999999</v>
       </c>
       <c r="B15" s="1">
-        <v>8.502251</v>
+        <v>8.5022509999999993</v>
       </c>
       <c r="C15" s="1">
-        <v>905.467000</v>
+        <v>905.46699999999998</v>
       </c>
       <c r="D15" s="1">
-        <v>-197.420000</v>
+        <v>-197.42</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>30618.488323</v>
+        <v>30618.488323000001</v>
       </c>
       <c r="G15" s="1">
-        <v>8.505136</v>
+        <v>8.5051360000000003</v>
       </c>
       <c r="H15" s="1">
-        <v>922.668000</v>
+        <v>922.66800000000001</v>
       </c>
       <c r="I15" s="1">
-        <v>-167.147000</v>
+        <v>-167.14699999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>30629.018418</v>
       </c>
       <c r="L15" s="1">
-        <v>8.508061</v>
+        <v>8.5080609999999997</v>
       </c>
       <c r="M15" s="1">
-        <v>945.259000</v>
+        <v>945.25900000000001</v>
       </c>
       <c r="N15" s="1">
-        <v>-119.568000</v>
+        <v>-119.568</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
         <v>30639.558373</v>
       </c>
       <c r="Q15" s="1">
-        <v>8.510988</v>
+        <v>8.5109879999999993</v>
       </c>
       <c r="R15" s="1">
-        <v>951.656000</v>
+        <v>951.65599999999995</v>
       </c>
       <c r="S15" s="1">
-        <v>-104.221000</v>
+        <v>-104.221</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>30650.074584</v>
+        <v>30650.074584000002</v>
       </c>
       <c r="V15" s="1">
-        <v>8.513910</v>
+        <v>8.5139099999999992</v>
       </c>
       <c r="W15" s="1">
-        <v>958.113000</v>
+        <v>958.11300000000006</v>
       </c>
       <c r="X15" s="1">
-        <v>-90.354500</v>
+        <v>-90.354500000000002</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>30660.258443</v>
+        <v>30660.258442999999</v>
       </c>
       <c r="AA15" s="1">
-        <v>8.516738</v>
+        <v>8.5167380000000001</v>
       </c>
       <c r="AB15" s="1">
-        <v>965.183000</v>
+        <v>965.18299999999999</v>
       </c>
       <c r="AC15" s="1">
-        <v>-80.562900</v>
+        <v>-80.562899999999999</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>30670.467564</v>
+        <v>30670.467563999999</v>
       </c>
       <c r="AF15" s="1">
-        <v>8.519574</v>
+        <v>8.5195740000000004</v>
       </c>
       <c r="AG15" s="1">
-        <v>970.150000</v>
+        <v>970.15</v>
       </c>
       <c r="AH15" s="1">
-        <v>-80.083400</v>
+        <v>-80.083399999999997</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>30680.742723</v>
+        <v>30680.742722999999</v>
       </c>
       <c r="AK15" s="1">
-        <v>8.522429</v>
+        <v>8.5224290000000007</v>
       </c>
       <c r="AL15" s="1">
-        <v>978.033000</v>
+        <v>978.03300000000002</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.730400</v>
+        <v>-87.730400000000003</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
         <v>30691.498442</v>
       </c>
       <c r="AP15" s="1">
-        <v>8.525416</v>
+        <v>8.5254159999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>987.189000</v>
+        <v>987.18899999999996</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.652000</v>
+        <v>-102.652</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>30702.192686</v>
+        <v>30702.192685999999</v>
       </c>
       <c r="AU15" s="1">
-        <v>8.528387</v>
+        <v>8.5283870000000004</v>
       </c>
       <c r="AV15" s="1">
-        <v>998.511000</v>
+        <v>998.51099999999997</v>
       </c>
       <c r="AW15" s="1">
-        <v>-124.168000</v>
+        <v>-124.16800000000001</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>30713.207363</v>
+        <v>30713.207363000001</v>
       </c>
       <c r="AZ15" s="1">
-        <v>8.531446</v>
+        <v>8.5314460000000008</v>
       </c>
       <c r="BA15" s="1">
-        <v>1008.080000</v>
+        <v>1008.08</v>
       </c>
       <c r="BB15" s="1">
-        <v>-142.913000</v>
+        <v>-142.91300000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
         <v>30724.232902</v>
       </c>
       <c r="BE15" s="1">
-        <v>8.534509</v>
+        <v>8.5345089999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1053.160000</v>
+        <v>1053.1600000000001</v>
       </c>
       <c r="BG15" s="1">
-        <v>-227.934000</v>
+        <v>-227.934</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>30735.500519</v>
+        <v>30735.500519000001</v>
       </c>
       <c r="BJ15" s="1">
-        <v>8.537639</v>
+        <v>8.5376390000000004</v>
       </c>
       <c r="BK15" s="1">
-        <v>1132.340000</v>
+        <v>1132.3399999999999</v>
       </c>
       <c r="BL15" s="1">
-        <v>-364.689000</v>
+        <v>-364.68900000000002</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>30746.600519</v>
       </c>
       <c r="BO15" s="1">
-        <v>8.540722</v>
+        <v>8.5407220000000006</v>
       </c>
       <c r="BP15" s="1">
-        <v>1263.730000</v>
+        <v>1263.73</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-576.544000</v>
+        <v>-576.54399999999998</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>30757.187594</v>
+        <v>30757.187593999999</v>
       </c>
       <c r="BT15" s="1">
-        <v>8.543663</v>
+        <v>8.5436630000000005</v>
       </c>
       <c r="BU15" s="1">
-        <v>1411.770000</v>
+        <v>1411.77</v>
       </c>
       <c r="BV15" s="1">
-        <v>-803.448000</v>
+        <v>-803.44799999999998</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>30767.934412</v>
+        <v>30767.934411999999</v>
       </c>
       <c r="BY15" s="1">
-        <v>8.546648</v>
+        <v>8.5466479999999994</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1574.560000</v>
+        <v>1574.56</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1039.360000</v>
+        <v>-1039.3599999999999</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>30780.108716</v>
+        <v>30780.108715999999</v>
       </c>
       <c r="CD15" s="1">
-        <v>8.550030</v>
+        <v>8.5500299999999996</v>
       </c>
       <c r="CE15" s="1">
-        <v>1987.020000</v>
+        <v>1987.02</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1590.940000</v>
+        <v>-1590.94</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
         <v>30608.543534</v>
       </c>
       <c r="B16" s="1">
-        <v>8.502373</v>
+        <v>8.5023730000000004</v>
       </c>
       <c r="C16" s="1">
-        <v>905.514000</v>
+        <v>905.51400000000001</v>
       </c>
       <c r="D16" s="1">
-        <v>-197.330000</v>
+        <v>-197.33</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>30618.868752</v>
+        <v>30618.868751999998</v>
       </c>
       <c r="G16" s="1">
-        <v>8.505241</v>
+        <v>8.5052409999999998</v>
       </c>
       <c r="H16" s="1">
-        <v>923.022000</v>
+        <v>923.02200000000005</v>
       </c>
       <c r="I16" s="1">
-        <v>-167.386000</v>
+        <v>-167.386</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>30629.364097</v>
+        <v>30629.364097000001</v>
       </c>
       <c r="L16" s="1">
-        <v>8.508157</v>
+        <v>8.5081570000000006</v>
       </c>
       <c r="M16" s="1">
-        <v>945.128000</v>
+        <v>945.12800000000004</v>
       </c>
       <c r="N16" s="1">
-        <v>-119.721000</v>
+        <v>-119.721</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>30639.905571</v>
+        <v>30639.905570999999</v>
       </c>
       <c r="Q16" s="1">
-        <v>8.511085</v>
+        <v>8.5110849999999996</v>
       </c>
       <c r="R16" s="1">
-        <v>951.679000</v>
+        <v>951.67899999999997</v>
       </c>
       <c r="S16" s="1">
-        <v>-104.269000</v>
+        <v>-104.26900000000001</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>30650.427207</v>
+        <v>30650.427207000001</v>
       </c>
       <c r="V16" s="1">
-        <v>8.514008</v>
+        <v>8.5140080000000005</v>
       </c>
       <c r="W16" s="1">
-        <v>958.117000</v>
+        <v>958.11699999999996</v>
       </c>
       <c r="X16" s="1">
-        <v>-90.391600</v>
+        <v>-90.391599999999997</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>30660.675545</v>
+        <v>30660.675544999998</v>
       </c>
       <c r="AA16" s="1">
-        <v>8.516854</v>
+        <v>8.5168540000000004</v>
       </c>
       <c r="AB16" s="1">
-        <v>965.262000</v>
+        <v>965.26199999999994</v>
       </c>
       <c r="AC16" s="1">
-        <v>-80.420800</v>
+        <v>-80.4208</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
         <v>30670.889164</v>
       </c>
       <c r="AF16" s="1">
-        <v>8.519691</v>
+        <v>8.5196909999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>970.175000</v>
+        <v>970.17499999999995</v>
       </c>
       <c r="AH16" s="1">
-        <v>-80.094400</v>
+        <v>-80.094399999999993</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>30681.039320</v>
+        <v>30681.03932</v>
       </c>
       <c r="AK16" s="1">
-        <v>8.522511</v>
+        <v>8.5225109999999997</v>
       </c>
       <c r="AL16" s="1">
-        <v>978.012000</v>
+        <v>978.01199999999994</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.751100</v>
+        <v>-87.751099999999994</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>30691.858068</v>
+        <v>30691.858068000001</v>
       </c>
       <c r="AP16" s="1">
-        <v>8.525516</v>
+        <v>8.5255159999999997</v>
       </c>
       <c r="AQ16" s="1">
-        <v>987.155000</v>
+        <v>987.15499999999997</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.639000</v>
+        <v>-102.639</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>30702.555745</v>
+        <v>30702.555745000001</v>
       </c>
       <c r="AU16" s="1">
-        <v>8.528488</v>
+        <v>8.5284879999999994</v>
       </c>
       <c r="AV16" s="1">
-        <v>998.486000</v>
+        <v>998.48599999999999</v>
       </c>
       <c r="AW16" s="1">
-        <v>-124.158000</v>
+        <v>-124.158</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>30713.566435</v>
+        <v>30713.566435000001</v>
       </c>
       <c r="AZ16" s="1">
-        <v>8.531546</v>
+        <v>8.5315460000000005</v>
       </c>
       <c r="BA16" s="1">
-        <v>1008.120000</v>
+        <v>1008.12</v>
       </c>
       <c r="BB16" s="1">
-        <v>-142.914000</v>
+        <v>-142.91399999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>30724.955573</v>
+        <v>30724.955572999999</v>
       </c>
       <c r="BE16" s="1">
-        <v>8.534710</v>
+        <v>8.5347100000000005</v>
       </c>
       <c r="BF16" s="1">
-        <v>1053.150000</v>
+        <v>1053.1500000000001</v>
       </c>
       <c r="BG16" s="1">
-        <v>-227.938000</v>
+        <v>-227.93799999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
         <v>30736.251988</v>
       </c>
       <c r="BJ16" s="1">
-        <v>8.537848</v>
+        <v>8.5378480000000003</v>
       </c>
       <c r="BK16" s="1">
-        <v>1132.320000</v>
+        <v>1132.32</v>
       </c>
       <c r="BL16" s="1">
-        <v>-364.687000</v>
+        <v>-364.68700000000001</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>30746.995800</v>
+        <v>30746.995800000001</v>
       </c>
       <c r="BO16" s="1">
         <v>8.540832</v>
       </c>
       <c r="BP16" s="1">
-        <v>1263.740000</v>
+        <v>1263.74</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-576.534000</v>
+        <v>-576.53399999999999</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>30757.550700</v>
+        <v>30757.5507</v>
       </c>
       <c r="BT16" s="1">
-        <v>8.543764</v>
+        <v>8.5437639999999995</v>
       </c>
       <c r="BU16" s="1">
-        <v>1411.560000</v>
+        <v>1411.56</v>
       </c>
       <c r="BV16" s="1">
-        <v>-803.486000</v>
+        <v>-803.48599999999999</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
         <v>30768.358194</v>
       </c>
       <c r="BY16" s="1">
-        <v>8.546766</v>
+        <v>8.5467659999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1574.590000</v>
+        <v>1574.59</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1039.350000</v>
+        <v>-1039.3499999999999</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>30780.936539</v>
+        <v>30780.936538999998</v>
       </c>
       <c r="CD16" s="1">
-        <v>8.550260</v>
+        <v>8.5502599999999997</v>
       </c>
       <c r="CE16" s="1">
-        <v>1985.740000</v>
+        <v>1985.74</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1590.750000</v>
+        <v>-1590.75</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
         <v>30608.785582</v>
       </c>
       <c r="B17" s="1">
-        <v>8.502440</v>
+        <v>8.50244</v>
       </c>
       <c r="C17" s="1">
-        <v>905.690000</v>
+        <v>905.69</v>
       </c>
       <c r="D17" s="1">
-        <v>-197.582000</v>
+        <v>-197.58199999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>30619.212975</v>
+        <v>30619.212974999999</v>
       </c>
       <c r="G17" s="1">
-        <v>8.505337</v>
+        <v>8.5053370000000008</v>
       </c>
       <c r="H17" s="1">
-        <v>922.973000</v>
+        <v>922.97299999999996</v>
       </c>
       <c r="I17" s="1">
-        <v>-167.348000</v>
+        <v>-167.34800000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>30629.710306</v>
+        <v>30629.710306000001</v>
       </c>
       <c r="L17" s="1">
-        <v>8.508253</v>
+        <v>8.5082529999999998</v>
       </c>
       <c r="M17" s="1">
-        <v>945.124000</v>
+        <v>945.12400000000002</v>
       </c>
       <c r="N17" s="1">
-        <v>-119.743000</v>
+        <v>-119.74299999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>30640.263684</v>
+        <v>30640.263684000001</v>
       </c>
       <c r="Q17" s="1">
-        <v>8.511184</v>
+        <v>8.5111840000000001</v>
       </c>
       <c r="R17" s="1">
-        <v>951.656000</v>
+        <v>951.65599999999995</v>
       </c>
       <c r="S17" s="1">
-        <v>-104.283000</v>
+        <v>-104.283</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>30650.841861</v>
+        <v>30650.841861000001</v>
       </c>
       <c r="V17" s="1">
-        <v>8.514123</v>
+        <v>8.5141229999999997</v>
       </c>
       <c r="W17" s="1">
-        <v>958.046000</v>
+        <v>958.04600000000005</v>
       </c>
       <c r="X17" s="1">
-        <v>-90.314900</v>
+        <v>-90.314899999999994</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>30660.968715</v>
+        <v>30660.968714999999</v>
       </c>
       <c r="AA17" s="1">
-        <v>8.516936</v>
+        <v>8.5169359999999994</v>
       </c>
       <c r="AB17" s="1">
-        <v>965.159000</v>
+        <v>965.15899999999999</v>
       </c>
       <c r="AC17" s="1">
-        <v>-80.691200</v>
+        <v>-80.691199999999995</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>30671.170395</v>
+        <v>30671.170395000001</v>
       </c>
       <c r="AF17" s="1">
-        <v>8.519770</v>
+        <v>8.5197699999999994</v>
       </c>
       <c r="AG17" s="1">
-        <v>970.171000</v>
+        <v>970.17100000000005</v>
       </c>
       <c r="AH17" s="1">
-        <v>-80.077600</v>
+        <v>-80.077600000000004</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>30681.389965</v>
+        <v>30681.389964999998</v>
       </c>
       <c r="AK17" s="1">
         <v>8.522608</v>
       </c>
       <c r="AL17" s="1">
-        <v>978.026000</v>
+        <v>978.02599999999995</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.739200</v>
+        <v>-87.739199999999997</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>30692.217134</v>
+        <v>30692.217133999999</v>
       </c>
       <c r="AP17" s="1">
-        <v>8.525616</v>
+        <v>8.5256159999999994</v>
       </c>
       <c r="AQ17" s="1">
-        <v>987.185000</v>
+        <v>987.18499999999995</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.654000</v>
+        <v>-102.654</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>30702.920833</v>
       </c>
       <c r="AU17" s="1">
-        <v>8.528589</v>
+        <v>8.5285890000000002</v>
       </c>
       <c r="AV17" s="1">
-        <v>998.522000</v>
+        <v>998.52200000000005</v>
       </c>
       <c r="AW17" s="1">
-        <v>-124.194000</v>
+        <v>-124.194</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>30714.290099</v>
+        <v>30714.290099000002</v>
       </c>
       <c r="AZ17" s="1">
-        <v>8.531747</v>
+        <v>8.5317469999999993</v>
       </c>
       <c r="BA17" s="1">
-        <v>1008.100000</v>
+        <v>1008.1</v>
       </c>
       <c r="BB17" s="1">
-        <v>-142.925000</v>
+        <v>-142.92500000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>30725.332530</v>
+        <v>30725.33253</v>
       </c>
       <c r="BE17" s="1">
         <v>8.534815</v>
       </c>
       <c r="BF17" s="1">
-        <v>1053.180000</v>
+        <v>1053.18</v>
       </c>
       <c r="BG17" s="1">
-        <v>-227.906000</v>
+        <v>-227.90600000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>30736.628452</v>
+        <v>30736.628452000001</v>
       </c>
       <c r="BJ17" s="1">
-        <v>8.537952</v>
+        <v>8.5379520000000007</v>
       </c>
       <c r="BK17" s="1">
-        <v>1132.340000</v>
+        <v>1132.3399999999999</v>
       </c>
       <c r="BL17" s="1">
-        <v>-364.690000</v>
+        <v>-364.69</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>30747.418421</v>
+        <v>30747.418420999998</v>
       </c>
       <c r="BO17" s="1">
-        <v>8.540950</v>
+        <v>8.5409500000000005</v>
       </c>
       <c r="BP17" s="1">
-        <v>1263.730000</v>
+        <v>1263.73</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-576.522000</v>
+        <v>-576.52200000000005</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
         <v>30758.267913</v>
       </c>
       <c r="BT17" s="1">
-        <v>8.543963</v>
+        <v>8.5439629999999998</v>
       </c>
       <c r="BU17" s="1">
-        <v>1411.580000</v>
+        <v>1411.58</v>
       </c>
       <c r="BV17" s="1">
-        <v>-803.389000</v>
+        <v>-803.38900000000001</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>30769.083641</v>
+        <v>30769.083641000001</v>
       </c>
       <c r="BY17" s="1">
-        <v>8.546968</v>
+        <v>8.5469679999999997</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1574.400000</v>
+        <v>1574.4</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1039.360000</v>
+        <v>-1039.3599999999999</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>30781.176628</v>
+        <v>30781.176628000001</v>
       </c>
       <c r="CD17" s="1">
-        <v>8.550327</v>
+        <v>8.5503269999999993</v>
       </c>
       <c r="CE17" s="1">
-        <v>1986.470000</v>
+        <v>1986.47</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1592.470000</v>
+        <v>-1592.47</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>30609.128839</v>
+        <v>30609.128839000001</v>
       </c>
       <c r="B18" s="1">
-        <v>8.502536</v>
+        <v>8.5025359999999992</v>
       </c>
       <c r="C18" s="1">
-        <v>905.576000</v>
+        <v>905.57600000000002</v>
       </c>
       <c r="D18" s="1">
-        <v>-197.334000</v>
+        <v>-197.334</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>30619.559184</v>
+        <v>30619.559184000002</v>
       </c>
       <c r="G18" s="1">
         <v>8.505433</v>
       </c>
       <c r="H18" s="1">
-        <v>922.438000</v>
+        <v>922.43799999999999</v>
       </c>
       <c r="I18" s="1">
-        <v>-167.307000</v>
+        <v>-167.30699999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>30630.124961</v>
+        <v>30630.124961000001</v>
       </c>
       <c r="L18" s="1">
-        <v>8.508368</v>
+        <v>8.5083680000000008</v>
       </c>
       <c r="M18" s="1">
-        <v>945.257000</v>
+        <v>945.25699999999995</v>
       </c>
       <c r="N18" s="1">
-        <v>-119.705000</v>
+        <v>-119.705</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
         <v>30640.686157</v>
       </c>
       <c r="Q18" s="1">
-        <v>8.511302</v>
+        <v>8.5113020000000006</v>
       </c>
       <c r="R18" s="1">
-        <v>951.664000</v>
+        <v>951.66399999999999</v>
       </c>
       <c r="S18" s="1">
-        <v>-104.297000</v>
+        <v>-104.297</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>30651.117639</v>
       </c>
       <c r="V18" s="1">
-        <v>8.514199</v>
+        <v>8.5141989999999996</v>
       </c>
       <c r="W18" s="1">
-        <v>958.051000</v>
+        <v>958.05100000000004</v>
       </c>
       <c r="X18" s="1">
-        <v>-90.345500</v>
+        <v>-90.345500000000001</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
         <v>30661.314887</v>
       </c>
       <c r="AA18" s="1">
-        <v>8.517032</v>
+        <v>8.5170320000000004</v>
       </c>
       <c r="AB18" s="1">
-        <v>965.175000</v>
+        <v>965.17499999999995</v>
       </c>
       <c r="AC18" s="1">
-        <v>-80.664400</v>
+        <v>-80.664400000000001</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>30671.516106</v>
+        <v>30671.516105999999</v>
       </c>
       <c r="AF18" s="1">
-        <v>8.519866</v>
+        <v>8.5198660000000004</v>
       </c>
       <c r="AG18" s="1">
-        <v>970.151000</v>
+        <v>970.15099999999995</v>
       </c>
       <c r="AH18" s="1">
-        <v>-80.069500</v>
+        <v>-80.069500000000005</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
         <v>30681.738158</v>
       </c>
       <c r="AK18" s="1">
-        <v>8.522705</v>
+        <v>8.5227050000000002</v>
       </c>
       <c r="AL18" s="1">
-        <v>978.041000</v>
+        <v>978.04100000000005</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.761300</v>
+        <v>-87.761300000000006</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>30692.942286</v>
+        <v>30692.942286000001</v>
       </c>
       <c r="AP18" s="1">
         <v>8.525817</v>
       </c>
       <c r="AQ18" s="1">
-        <v>987.174000</v>
+        <v>987.17399999999998</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.661000</v>
+        <v>-102.661</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
         <v>30703.656863</v>
       </c>
       <c r="AU18" s="1">
-        <v>8.528794</v>
+        <v>8.5287939999999995</v>
       </c>
       <c r="AV18" s="1">
-        <v>998.513000</v>
+        <v>998.51300000000003</v>
       </c>
       <c r="AW18" s="1">
-        <v>-124.167000</v>
+        <v>-124.167</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>30714.663104</v>
+        <v>30714.663103999999</v>
       </c>
       <c r="AZ18" s="1">
-        <v>8.531851</v>
+        <v>8.5318509999999996</v>
       </c>
       <c r="BA18" s="1">
-        <v>1008.090000</v>
+        <v>1008.09</v>
       </c>
       <c r="BB18" s="1">
-        <v>-142.927000</v>
+        <v>-142.92699999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>30725.692162</v>
+        <v>30725.692161999999</v>
       </c>
       <c r="BE18" s="1">
-        <v>8.534914</v>
+        <v>8.5349140000000006</v>
       </c>
       <c r="BF18" s="1">
-        <v>1053.160000</v>
+        <v>1053.1600000000001</v>
       </c>
       <c r="BG18" s="1">
-        <v>-227.927000</v>
+        <v>-227.92699999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>30737.003893</v>
+        <v>30737.003893000001</v>
       </c>
       <c r="BJ18" s="1">
-        <v>8.538057</v>
+        <v>8.5380570000000002</v>
       </c>
       <c r="BK18" s="1">
-        <v>1132.340000</v>
+        <v>1132.3399999999999</v>
       </c>
       <c r="BL18" s="1">
-        <v>-364.674000</v>
+        <v>-364.67399999999998</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>30748.126678</v>
+        <v>30748.126678000001</v>
       </c>
       <c r="BO18" s="1">
-        <v>8.541146</v>
+        <v>8.5411459999999995</v>
       </c>
       <c r="BP18" s="1">
-        <v>1263.720000</v>
+        <v>1263.72</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-576.554000</v>
+        <v>-576.55399999999997</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>30758.394855</v>
+        <v>30758.394854999999</v>
       </c>
       <c r="BT18" s="1">
-        <v>8.543999</v>
+        <v>8.5439989999999995</v>
       </c>
       <c r="BU18" s="1">
-        <v>1411.430000</v>
+        <v>1411.43</v>
       </c>
       <c r="BV18" s="1">
-        <v>-803.242000</v>
+        <v>-803.24199999999996</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>30769.199706</v>
+        <v>30769.199705999999</v>
       </c>
       <c r="BY18" s="1">
-        <v>8.547000</v>
+        <v>8.5470000000000006</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1574.480000</v>
+        <v>1574.48</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1039.490000</v>
+        <v>-1039.49</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>30781.711316</v>
+        <v>30781.711316000001</v>
       </c>
       <c r="CD18" s="1">
-        <v>8.550475</v>
+        <v>8.5504750000000005</v>
       </c>
       <c r="CE18" s="1">
-        <v>1987.230000</v>
+        <v>1987.23</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1590.880000</v>
+        <v>-1590.88</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>30609.547472</v>
+        <v>30609.547471999998</v>
       </c>
       <c r="B19" s="1">
-        <v>8.502652</v>
+        <v>8.5026519999999994</v>
       </c>
       <c r="C19" s="1">
-        <v>905.571000</v>
+        <v>905.57100000000003</v>
       </c>
       <c r="D19" s="1">
-        <v>-197.650000</v>
+        <v>-197.65</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>30619.983289</v>
       </c>
       <c r="G19" s="1">
-        <v>8.505551</v>
+        <v>8.5055510000000005</v>
       </c>
       <c r="H19" s="1">
-        <v>922.622000</v>
+        <v>922.62199999999996</v>
       </c>
       <c r="I19" s="1">
-        <v>-167.507000</v>
+        <v>-167.50700000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>30630.414624</v>
+        <v>30630.414624000001</v>
       </c>
       <c r="L19" s="1">
-        <v>8.508449</v>
+        <v>8.5084490000000006</v>
       </c>
       <c r="M19" s="1">
-        <v>945.021000</v>
+        <v>945.02099999999996</v>
       </c>
       <c r="N19" s="1">
-        <v>-119.764000</v>
+        <v>-119.764</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
         <v>30640.960066</v>
       </c>
       <c r="Q19" s="1">
-        <v>8.511378</v>
+        <v>8.5113780000000006</v>
       </c>
       <c r="R19" s="1">
-        <v>951.626000</v>
+        <v>951.62599999999998</v>
       </c>
       <c r="S19" s="1">
-        <v>-104.306000</v>
+        <v>-104.306</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
         <v>30651.472276</v>
       </c>
       <c r="V19" s="1">
-        <v>8.514298</v>
+        <v>8.5142980000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>958.073000</v>
+        <v>958.07299999999998</v>
       </c>
       <c r="X19" s="1">
-        <v>-90.322500</v>
+        <v>-90.322500000000005</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>30661.665559</v>
+        <v>30661.665559000001</v>
       </c>
       <c r="AA19" s="1">
-        <v>8.517129</v>
+        <v>8.5171290000000006</v>
       </c>
       <c r="AB19" s="1">
-        <v>965.190000</v>
+        <v>965.19</v>
       </c>
       <c r="AC19" s="1">
-        <v>-80.630100</v>
+        <v>-80.630099999999999</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>30671.857851</v>
+        <v>30671.857851000001</v>
       </c>
       <c r="AF19" s="1">
-        <v>8.519961</v>
+        <v>8.5199610000000003</v>
       </c>
       <c r="AG19" s="1">
-        <v>970.140000</v>
+        <v>970.14</v>
       </c>
       <c r="AH19" s="1">
-        <v>-80.073100</v>
+        <v>-80.073099999999997</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>30682.433585</v>
+        <v>30682.433584999999</v>
       </c>
       <c r="AK19" s="1">
-        <v>8.522898</v>
+        <v>8.5228979999999996</v>
       </c>
       <c r="AL19" s="1">
-        <v>978.029000</v>
+        <v>978.029</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.779000</v>
+        <v>-87.778999999999996</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>30693.318254</v>
+        <v>30693.318254000002</v>
       </c>
       <c r="AP19" s="1">
-        <v>8.525922</v>
+        <v>8.5259219999999996</v>
       </c>
       <c r="AQ19" s="1">
-        <v>987.178000</v>
+        <v>987.178</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.647000</v>
+        <v>-102.64700000000001</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>30704.036837</v>
       </c>
       <c r="AU19" s="1">
-        <v>8.528899</v>
+        <v>8.5288989999999991</v>
       </c>
       <c r="AV19" s="1">
-        <v>998.491000</v>
+        <v>998.49099999999999</v>
       </c>
       <c r="AW19" s="1">
-        <v>-124.166000</v>
+        <v>-124.166</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>30715.039584</v>
+        <v>30715.039583999998</v>
       </c>
       <c r="AZ19" s="1">
         <v>8.531955</v>
       </c>
       <c r="BA19" s="1">
-        <v>1008.080000</v>
+        <v>1008.08</v>
       </c>
       <c r="BB19" s="1">
-        <v>-142.907000</v>
+        <v>-142.90700000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
         <v>30726.364738</v>
       </c>
       <c r="BE19" s="1">
-        <v>8.535101</v>
+        <v>8.5351009999999992</v>
       </c>
       <c r="BF19" s="1">
-        <v>1053.170000</v>
+        <v>1053.17</v>
       </c>
       <c r="BG19" s="1">
-        <v>-227.932000</v>
+        <v>-227.93199999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>30737.687378</v>
+        <v>30737.687377999999</v>
       </c>
       <c r="BJ19" s="1">
-        <v>8.538246</v>
+        <v>8.5382459999999991</v>
       </c>
       <c r="BK19" s="1">
-        <v>1132.330000</v>
+        <v>1132.33</v>
       </c>
       <c r="BL19" s="1">
-        <v>-364.683000</v>
+        <v>-364.68299999999999</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>30748.252660</v>
+        <v>30748.252659999998</v>
       </c>
       <c r="BO19" s="1">
-        <v>8.541181</v>
+        <v>8.5411809999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1263.730000</v>
+        <v>1263.73</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-576.548000</v>
+        <v>-576.548</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>30758.830870</v>
+        <v>30758.830870000002</v>
       </c>
       <c r="BT19" s="1">
-        <v>8.544120</v>
+        <v>8.5441199999999995</v>
       </c>
       <c r="BU19" s="1">
-        <v>1411.380000</v>
+        <v>1411.38</v>
       </c>
       <c r="BV19" s="1">
-        <v>-803.085000</v>
+        <v>-803.08500000000004</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>30769.633244</v>
+        <v>30769.633244000001</v>
       </c>
       <c r="BY19" s="1">
-        <v>8.547120</v>
+        <v>8.5471199999999996</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1574.540000</v>
+        <v>1574.54</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1039.460000</v>
+        <v>-1039.46</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>30782.249976</v>
+        <v>30782.249975999999</v>
       </c>
       <c r="CD19" s="1">
-        <v>8.550625</v>
+        <v>8.5506250000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>1985.400000</v>
+        <v>1985.4</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1591.870000</v>
+        <v>-1591.87</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
         <v>30609.827675</v>
       </c>
       <c r="B20" s="1">
-        <v>8.502730</v>
+        <v>8.5027299999999997</v>
       </c>
       <c r="C20" s="1">
-        <v>905.592000</v>
+        <v>905.59199999999998</v>
       </c>
       <c r="D20" s="1">
-        <v>-197.543000</v>
+        <v>-197.54300000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>30620.246638</v>
+        <v>30620.246638000001</v>
       </c>
       <c r="G20" s="1">
-        <v>8.505624</v>
+        <v>8.5056239999999992</v>
       </c>
       <c r="H20" s="1">
-        <v>923.035000</v>
+        <v>923.03499999999997</v>
       </c>
       <c r="I20" s="1">
-        <v>-167.232000</v>
+        <v>-167.232</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
         <v>30630.758877</v>
       </c>
       <c r="L20" s="1">
-        <v>8.508544</v>
+        <v>8.5085440000000006</v>
       </c>
       <c r="M20" s="1">
-        <v>945.043000</v>
+        <v>945.04300000000001</v>
       </c>
       <c r="N20" s="1">
-        <v>-119.487000</v>
+        <v>-119.48699999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
         <v>30641.319667</v>
       </c>
       <c r="Q20" s="1">
-        <v>8.511478</v>
+        <v>8.5114780000000003</v>
       </c>
       <c r="R20" s="1">
-        <v>951.612000</v>
+        <v>951.61199999999997</v>
       </c>
       <c r="S20" s="1">
-        <v>-104.265000</v>
+        <v>-104.265</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>30651.817494</v>
+        <v>30651.817493999999</v>
       </c>
       <c r="V20" s="1">
-        <v>8.514394</v>
+        <v>8.5143939999999994</v>
       </c>
       <c r="W20" s="1">
-        <v>958.089000</v>
+        <v>958.08900000000006</v>
       </c>
       <c r="X20" s="1">
-        <v>-90.354900</v>
+        <v>-90.354900000000001</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>30662.361446</v>
+        <v>30662.361445999999</v>
       </c>
       <c r="AA20" s="1">
-        <v>8.517323</v>
+        <v>8.5173229999999993</v>
       </c>
       <c r="AB20" s="1">
-        <v>965.210000</v>
+        <v>965.21</v>
       </c>
       <c r="AC20" s="1">
-        <v>-80.681000</v>
+        <v>-80.680999999999997</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>30672.543321</v>
+        <v>30672.543321000001</v>
       </c>
       <c r="AF20" s="1">
-        <v>8.520151</v>
+        <v>8.5201510000000003</v>
       </c>
       <c r="AG20" s="1">
-        <v>970.156000</v>
+        <v>970.15599999999995</v>
       </c>
       <c r="AH20" s="1">
-        <v>-80.062700</v>
+        <v>-80.062700000000007</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>30682.784251</v>
+        <v>30682.784251000001</v>
       </c>
       <c r="AK20" s="1">
-        <v>8.522996</v>
+        <v>8.5229959999999991</v>
       </c>
       <c r="AL20" s="1">
-        <v>978.023000</v>
+        <v>978.02300000000002</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.753100</v>
+        <v>-87.753100000000003</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>30693.679370</v>
+        <v>30693.679370000002</v>
       </c>
       <c r="AP20" s="1">
-        <v>8.526022</v>
+        <v>8.5260219999999993</v>
       </c>
       <c r="AQ20" s="1">
-        <v>987.193000</v>
+        <v>987.19299999999998</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.637000</v>
+        <v>-102.637</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>30704.403840</v>
+        <v>30704.403839999999</v>
       </c>
       <c r="AU20" s="1">
-        <v>8.529001</v>
+        <v>8.5290009999999992</v>
       </c>
       <c r="AV20" s="1">
-        <v>998.492000</v>
+        <v>998.49199999999996</v>
       </c>
       <c r="AW20" s="1">
-        <v>-124.171000</v>
+        <v>-124.17100000000001</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>30715.711633</v>
+        <v>30715.711632999999</v>
       </c>
       <c r="AZ20" s="1">
-        <v>8.532142</v>
+        <v>8.5321420000000003</v>
       </c>
       <c r="BA20" s="1">
-        <v>1008.100000</v>
+        <v>1008.1</v>
       </c>
       <c r="BB20" s="1">
-        <v>-142.938000</v>
+        <v>-142.93799999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>30726.808657</v>
+        <v>30726.808657000001</v>
       </c>
       <c r="BE20" s="1">
-        <v>8.535225</v>
+        <v>8.5352250000000005</v>
       </c>
       <c r="BF20" s="1">
-        <v>1053.160000</v>
+        <v>1053.1600000000001</v>
       </c>
       <c r="BG20" s="1">
-        <v>-227.929000</v>
+        <v>-227.929</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
         <v>30738.127481</v>
       </c>
       <c r="BJ20" s="1">
-        <v>8.538369</v>
+        <v>8.5383689999999994</v>
       </c>
       <c r="BK20" s="1">
-        <v>1132.340000</v>
+        <v>1132.3399999999999</v>
       </c>
       <c r="BL20" s="1">
-        <v>-364.670000</v>
+        <v>-364.67</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
         <v>30748.661893</v>
       </c>
       <c r="BO20" s="1">
-        <v>8.541295</v>
+        <v>8.5412949999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1263.770000</v>
+        <v>1263.77</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-576.525000</v>
+        <v>-576.52499999999998</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>30759.258901</v>
+        <v>30759.258901000001</v>
       </c>
       <c r="BT20" s="1">
-        <v>8.544239</v>
+        <v>8.5442389999999993</v>
       </c>
       <c r="BU20" s="1">
-        <v>1411.400000</v>
+        <v>1411.4</v>
       </c>
       <c r="BV20" s="1">
-        <v>-802.994000</v>
+        <v>-802.99400000000003</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>30770.060761</v>
+        <v>30770.060761000001</v>
       </c>
       <c r="BY20" s="1">
-        <v>8.547239</v>
+        <v>8.5472389999999994</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1574.460000</v>
+        <v>1574.46</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1039.420000</v>
+        <v>-1039.42</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>30782.788103</v>
+        <v>30782.788102999999</v>
       </c>
       <c r="CD20" s="1">
-        <v>8.550774</v>
+        <v>8.5507740000000005</v>
       </c>
       <c r="CE20" s="1">
-        <v>1987.210000</v>
+        <v>1987.21</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1591.930000</v>
+        <v>-1591.93</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
         <v>30610.167931</v>
       </c>
       <c r="B21" s="1">
-        <v>8.502824</v>
+        <v>8.5028240000000004</v>
       </c>
       <c r="C21" s="1">
-        <v>905.552000</v>
+        <v>905.55200000000002</v>
       </c>
       <c r="D21" s="1">
-        <v>-197.376000</v>
+        <v>-197.376</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>30620.592877</v>
+        <v>30620.592876999999</v>
       </c>
       <c r="G21" s="1">
-        <v>8.505720</v>
+        <v>8.5057200000000002</v>
       </c>
       <c r="H21" s="1">
-        <v>922.532000</v>
+        <v>922.53200000000004</v>
       </c>
       <c r="I21" s="1">
-        <v>-167.276000</v>
+        <v>-167.27600000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>30631.105551</v>
+        <v>30631.105551000001</v>
       </c>
       <c r="L21" s="1">
-        <v>8.508640</v>
+        <v>8.5086399999999998</v>
       </c>
       <c r="M21" s="1">
-        <v>945.034000</v>
+        <v>945.03399999999999</v>
       </c>
       <c r="N21" s="1">
-        <v>-119.676000</v>
+        <v>-119.676</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>30642.018069</v>
+        <v>30642.018069000002</v>
       </c>
       <c r="Q21" s="1">
-        <v>8.511672</v>
+        <v>8.5116720000000008</v>
       </c>
       <c r="R21" s="1">
-        <v>951.665000</v>
+        <v>951.66499999999996</v>
       </c>
       <c r="S21" s="1">
-        <v>-104.281000</v>
+        <v>-104.28100000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>30652.502964</v>
+        <v>30652.502963999999</v>
       </c>
       <c r="V21" s="1">
-        <v>8.514584</v>
+        <v>8.5145839999999993</v>
       </c>
       <c r="W21" s="1">
-        <v>958.113000</v>
+        <v>958.11300000000006</v>
       </c>
       <c r="X21" s="1">
-        <v>-90.429000</v>
+        <v>-90.429000000000002</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>30662.710629</v>
+        <v>30662.710629000001</v>
       </c>
       <c r="AA21" s="1">
-        <v>8.517420</v>
+        <v>8.5174199999999995</v>
       </c>
       <c r="AB21" s="1">
-        <v>965.195000</v>
+        <v>965.19500000000005</v>
       </c>
       <c r="AC21" s="1">
-        <v>-80.612400</v>
+        <v>-80.612399999999994</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>30672.887544</v>
+        <v>30672.887544000001</v>
       </c>
       <c r="AF21" s="1">
-        <v>8.520247</v>
+        <v>8.5202469999999995</v>
       </c>
       <c r="AG21" s="1">
-        <v>970.147000</v>
+        <v>970.14700000000005</v>
       </c>
       <c r="AH21" s="1">
-        <v>-80.086700</v>
+        <v>-80.086699999999993</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>30683.132326</v>
+        <v>30683.132325999999</v>
       </c>
       <c r="AK21" s="1">
-        <v>8.523092</v>
+        <v>8.5230920000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>978.027000</v>
+        <v>978.02700000000004</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.748200</v>
+        <v>-87.748199999999997</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>30694.349964</v>
+        <v>30694.349964000001</v>
       </c>
       <c r="AP21" s="1">
-        <v>8.526208</v>
+        <v>8.5262080000000005</v>
       </c>
       <c r="AQ21" s="1">
-        <v>987.175000</v>
+        <v>987.17499999999995</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.624000</v>
+        <v>-102.624</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>30705.069966</v>
+        <v>30705.069965999999</v>
       </c>
       <c r="AU21" s="1">
-        <v>8.529186</v>
+        <v>8.5291859999999993</v>
       </c>
       <c r="AV21" s="1">
-        <v>998.507000</v>
+        <v>998.50699999999995</v>
       </c>
       <c r="AW21" s="1">
-        <v>-124.174000</v>
+        <v>-124.17400000000001</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>30716.127280</v>
+        <v>30716.127280000001</v>
       </c>
       <c r="AZ21" s="1">
-        <v>8.532258</v>
+        <v>8.5322580000000006</v>
       </c>
       <c r="BA21" s="1">
-        <v>1008.080000</v>
+        <v>1008.08</v>
       </c>
       <c r="BB21" s="1">
-        <v>-142.933000</v>
+        <v>-142.93299999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
         <v>30727.170208</v>
       </c>
       <c r="BE21" s="1">
-        <v>8.535325</v>
+        <v>8.5353250000000003</v>
       </c>
       <c r="BF21" s="1">
-        <v>1053.160000</v>
+        <v>1053.1600000000001</v>
       </c>
       <c r="BG21" s="1">
-        <v>-227.927000</v>
+        <v>-227.92699999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>30738.503820</v>
+        <v>30738.503820000002</v>
       </c>
       <c r="BJ21" s="1">
-        <v>8.538473</v>
+        <v>8.5384729999999998</v>
       </c>
       <c r="BK21" s="1">
-        <v>1132.370000</v>
+        <v>1132.3699999999999</v>
       </c>
       <c r="BL21" s="1">
-        <v>-364.698000</v>
+        <v>-364.69799999999998</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
         <v>30749.059674</v>
       </c>
       <c r="BO21" s="1">
-        <v>8.541405</v>
+        <v>8.5414049999999992</v>
       </c>
       <c r="BP21" s="1">
-        <v>1263.700000</v>
+        <v>1263.7</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-576.553000</v>
+        <v>-576.553</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>30759.673543</v>
+        <v>30759.673543000001</v>
       </c>
       <c r="BT21" s="1">
-        <v>8.544354</v>
+        <v>8.5443540000000002</v>
       </c>
       <c r="BU21" s="1">
-        <v>1411.460000</v>
+        <v>1411.46</v>
       </c>
       <c r="BV21" s="1">
-        <v>-802.841000</v>
+        <v>-802.84100000000001</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>30770.481368</v>
+        <v>30770.481368000001</v>
       </c>
       <c r="BY21" s="1">
-        <v>8.547356</v>
+        <v>8.5473560000000006</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1574.550000</v>
+        <v>1574.55</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1039.260000</v>
+        <v>-1039.26</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>30783.329766</v>
+        <v>30783.329765999999</v>
       </c>
       <c r="CD21" s="1">
-        <v>8.550925</v>
+        <v>8.5509249999999994</v>
       </c>
       <c r="CE21" s="1">
-        <v>1985.780000</v>
+        <v>1985.78</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1590.880000</v>
+        <v>-1590.88</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
         <v>30610.509178</v>
       </c>
       <c r="B22" s="1">
-        <v>8.502919</v>
+        <v>8.5029190000000003</v>
       </c>
       <c r="C22" s="1">
-        <v>905.623000</v>
+        <v>905.62300000000005</v>
       </c>
       <c r="D22" s="1">
-        <v>-197.639000</v>
+        <v>-197.63900000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>30620.937983</v>
       </c>
       <c r="G22" s="1">
-        <v>8.505816</v>
+        <v>8.5058159999999994</v>
       </c>
       <c r="H22" s="1">
-        <v>922.949000</v>
+        <v>922.94899999999996</v>
       </c>
       <c r="I22" s="1">
-        <v>-167.347000</v>
+        <v>-167.34700000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>30631.797010</v>
+        <v>30631.797009999998</v>
       </c>
       <c r="L22" s="1">
-        <v>8.508833</v>
+        <v>8.5088329999999992</v>
       </c>
       <c r="M22" s="1">
-        <v>945.011000</v>
+        <v>945.01099999999997</v>
       </c>
       <c r="N22" s="1">
-        <v>-119.853000</v>
+        <v>-119.85299999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>30642.367743</v>
+        <v>30642.367742999999</v>
       </c>
       <c r="Q22" s="1">
-        <v>8.511769</v>
+        <v>8.5117689999999993</v>
       </c>
       <c r="R22" s="1">
-        <v>951.667000</v>
+        <v>951.66700000000003</v>
       </c>
       <c r="S22" s="1">
-        <v>-104.278000</v>
+        <v>-104.27800000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
         <v>30652.847715</v>
       </c>
       <c r="V22" s="1">
-        <v>8.514680</v>
+        <v>8.5146800000000002</v>
       </c>
       <c r="W22" s="1">
-        <v>958.115000</v>
+        <v>958.11500000000001</v>
       </c>
       <c r="X22" s="1">
-        <v>-90.411400</v>
+        <v>-90.4114</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>30663.058326</v>
+        <v>30663.058325999998</v>
       </c>
       <c r="AA22" s="1">
-        <v>8.517516</v>
+        <v>8.5175160000000005</v>
       </c>
       <c r="AB22" s="1">
-        <v>965.207000</v>
+        <v>965.20699999999999</v>
       </c>
       <c r="AC22" s="1">
-        <v>-80.666200</v>
+        <v>-80.666200000000003</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>30673.231769</v>
+        <v>30673.231769000002</v>
       </c>
       <c r="AF22" s="1">
-        <v>8.520342</v>
+        <v>8.5203419999999994</v>
       </c>
       <c r="AG22" s="1">
-        <v>970.177000</v>
+        <v>970.17700000000002</v>
       </c>
       <c r="AH22" s="1">
-        <v>-80.070400</v>
+        <v>-80.070400000000006</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>30683.788123</v>
+        <v>30683.788122999998</v>
       </c>
       <c r="AK22" s="1">
-        <v>8.523274</v>
+        <v>8.5232740000000007</v>
       </c>
       <c r="AL22" s="1">
-        <v>978.056000</v>
+        <v>978.05600000000004</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.741600</v>
+        <v>-87.741600000000005</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>30694.761117</v>
+        <v>30694.761116999998</v>
       </c>
       <c r="AP22" s="1">
-        <v>8.526323</v>
+        <v>8.5263229999999997</v>
       </c>
       <c r="AQ22" s="1">
-        <v>987.191000</v>
+        <v>987.19100000000003</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.653000</v>
+        <v>-102.65300000000001</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>30705.529293</v>
       </c>
       <c r="AU22" s="1">
-        <v>8.529314</v>
+        <v>8.5293139999999994</v>
       </c>
       <c r="AV22" s="1">
-        <v>998.475000</v>
+        <v>998.47500000000002</v>
       </c>
       <c r="AW22" s="1">
-        <v>-124.187000</v>
+        <v>-124.187</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>30716.504238</v>
+        <v>30716.504238000001</v>
       </c>
       <c r="AZ22" s="1">
-        <v>8.532362</v>
+        <v>8.5323619999999991</v>
       </c>
       <c r="BA22" s="1">
-        <v>1008.100000</v>
+        <v>1008.1</v>
       </c>
       <c r="BB22" s="1">
-        <v>-142.912000</v>
+        <v>-142.91200000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>30727.532320</v>
+        <v>30727.532319999998</v>
       </c>
       <c r="BE22" s="1">
-        <v>8.535426</v>
+        <v>8.5354259999999993</v>
       </c>
       <c r="BF22" s="1">
-        <v>1053.180000</v>
+        <v>1053.18</v>
       </c>
       <c r="BG22" s="1">
-        <v>-227.918000</v>
+        <v>-227.91800000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>30738.880259</v>
+        <v>30738.880259000001</v>
       </c>
       <c r="BJ22" s="1">
-        <v>8.538578</v>
+        <v>8.5385779999999993</v>
       </c>
       <c r="BK22" s="1">
-        <v>1132.330000</v>
+        <v>1132.33</v>
       </c>
       <c r="BL22" s="1">
-        <v>-364.710000</v>
+        <v>-364.71</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>30749.481747</v>
+        <v>30749.481747000002</v>
       </c>
       <c r="BO22" s="1">
-        <v>8.541523</v>
+        <v>8.5415229999999998</v>
       </c>
       <c r="BP22" s="1">
-        <v>1263.700000</v>
+        <v>1263.7</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-576.555000</v>
+        <v>-576.55499999999995</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>30760.102613</v>
+        <v>30760.102612999999</v>
       </c>
       <c r="BT22" s="1">
         <v>8.544473</v>
       </c>
       <c r="BU22" s="1">
-        <v>1411.450000</v>
+        <v>1411.45</v>
       </c>
       <c r="BV22" s="1">
-        <v>-802.687000</v>
+        <v>-802.68700000000001</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
         <v>30770.907431</v>
       </c>
       <c r="BY22" s="1">
-        <v>8.547474</v>
+        <v>8.5474739999999994</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1574.340000</v>
+        <v>1574.34</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1039.380000</v>
+        <v>-1039.3800000000001</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>30783.871365</v>
+        <v>30783.871364999999</v>
       </c>
       <c r="CD22" s="1">
-        <v>8.551075</v>
+        <v>8.5510750000000009</v>
       </c>
       <c r="CE22" s="1">
-        <v>1985.620000</v>
+        <v>1985.62</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1592.610000</v>
+        <v>-1592.61</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>30611.194154</v>
+        <v>30611.194154000001</v>
       </c>
       <c r="B23" s="1">
-        <v>8.503109</v>
+        <v>8.5031090000000003</v>
       </c>
       <c r="C23" s="1">
-        <v>905.560000</v>
+        <v>905.56</v>
       </c>
       <c r="D23" s="1">
-        <v>-197.548000</v>
+        <v>-197.548</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>30621.627004</v>
+        <v>30621.627004000002</v>
       </c>
       <c r="G23" s="1">
-        <v>8.506008</v>
+        <v>8.5060079999999996</v>
       </c>
       <c r="H23" s="1">
-        <v>922.308000</v>
+        <v>922.30799999999999</v>
       </c>
       <c r="I23" s="1">
-        <v>-167.463000</v>
+        <v>-167.46299999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
         <v>30632.143678</v>
       </c>
       <c r="L23" s="1">
-        <v>8.508929</v>
+        <v>8.5089290000000002</v>
       </c>
       <c r="M23" s="1">
-        <v>945.048000</v>
+        <v>945.048</v>
       </c>
       <c r="N23" s="1">
-        <v>-119.686000</v>
+        <v>-119.68600000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>30642.716401</v>
+        <v>30642.716401000001</v>
       </c>
       <c r="Q23" s="1">
-        <v>8.511866</v>
+        <v>8.5118659999999995</v>
       </c>
       <c r="R23" s="1">
-        <v>951.671000</v>
+        <v>951.67100000000005</v>
       </c>
       <c r="S23" s="1">
-        <v>-104.268000</v>
+        <v>-104.268</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>30653.190420</v>
+        <v>30653.190419999999</v>
       </c>
       <c r="V23" s="1">
-        <v>8.514775</v>
+        <v>8.5147750000000002</v>
       </c>
       <c r="W23" s="1">
-        <v>958.028000</v>
+        <v>958.02800000000002</v>
       </c>
       <c r="X23" s="1">
-        <v>-90.310900</v>
+        <v>-90.310900000000004</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>30663.717596</v>
+        <v>30663.717595999999</v>
       </c>
       <c r="AA23" s="1">
-        <v>8.517699</v>
+        <v>8.5176990000000004</v>
       </c>
       <c r="AB23" s="1">
-        <v>965.318000</v>
+        <v>965.31799999999998</v>
       </c>
       <c r="AC23" s="1">
-        <v>-80.634700</v>
+        <v>-80.634699999999995</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>30673.891943</v>
+        <v>30673.891942999999</v>
       </c>
       <c r="AF23" s="1">
-        <v>8.520526</v>
+        <v>8.5205260000000003</v>
       </c>
       <c r="AG23" s="1">
-        <v>970.181000</v>
+        <v>970.18100000000004</v>
       </c>
       <c r="AH23" s="1">
-        <v>-80.074900</v>
+        <v>-80.0749</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>30684.177481</v>
+        <v>30684.177480999999</v>
       </c>
       <c r="AK23" s="1">
-        <v>8.523383</v>
+        <v>8.5233830000000008</v>
       </c>
       <c r="AL23" s="1">
-        <v>978.028000</v>
+        <v>978.02800000000002</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.760200</v>
+        <v>-87.760199999999998</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>30695.145546</v>
       </c>
       <c r="AP23" s="1">
-        <v>8.526429</v>
+        <v>8.5264290000000003</v>
       </c>
       <c r="AQ23" s="1">
-        <v>987.166000</v>
+        <v>987.16600000000005</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.654000</v>
+        <v>-102.654</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>30705.895344</v>
       </c>
       <c r="AU23" s="1">
-        <v>8.529415</v>
+        <v>8.5294150000000002</v>
       </c>
       <c r="AV23" s="1">
-        <v>998.490000</v>
+        <v>998.49</v>
       </c>
       <c r="AW23" s="1">
-        <v>-124.200000</v>
+        <v>-124.2</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>30716.881199</v>
+        <v>30716.881198999999</v>
       </c>
       <c r="AZ23" s="1">
-        <v>8.532467</v>
+        <v>8.5324670000000005</v>
       </c>
       <c r="BA23" s="1">
-        <v>1008.100000</v>
+        <v>1008.1</v>
       </c>
       <c r="BB23" s="1">
-        <v>-142.942000</v>
+        <v>-142.94200000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>30727.960337</v>
       </c>
       <c r="BE23" s="1">
-        <v>8.535545</v>
+        <v>8.5355450000000008</v>
       </c>
       <c r="BF23" s="1">
-        <v>1053.180000</v>
+        <v>1053.18</v>
       </c>
       <c r="BG23" s="1">
-        <v>-227.942000</v>
+        <v>-227.94200000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>30739.301856</v>
+        <v>30739.301855999998</v>
       </c>
       <c r="BJ23" s="1">
-        <v>8.538695</v>
+        <v>8.5386950000000006</v>
       </c>
       <c r="BK23" s="1">
-        <v>1132.330000</v>
+        <v>1132.33</v>
       </c>
       <c r="BL23" s="1">
-        <v>-364.670000</v>
+        <v>-364.67</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>30749.877059</v>
+        <v>30749.877058999999</v>
       </c>
       <c r="BO23" s="1">
-        <v>8.541633</v>
+        <v>8.5416329999999991</v>
       </c>
       <c r="BP23" s="1">
-        <v>1263.720000</v>
+        <v>1263.72</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-576.525000</v>
+        <v>-576.52499999999998</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>30760.530630</v>
+        <v>30760.530630000001</v>
       </c>
       <c r="BT23" s="1">
-        <v>8.544592</v>
+        <v>8.5445919999999997</v>
       </c>
       <c r="BU23" s="1">
-        <v>1411.610000</v>
+        <v>1411.61</v>
       </c>
       <c r="BV23" s="1">
-        <v>-802.743000</v>
+        <v>-802.74300000000005</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>30771.320599</v>
+        <v>30771.320598999999</v>
       </c>
       <c r="BY23" s="1">
-        <v>8.547589</v>
+        <v>8.5475890000000003</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1574.500000</v>
+        <v>1574.5</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1039.380000</v>
+        <v>-1039.3800000000001</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>30784.409525</v>
+        <v>30784.409524999999</v>
       </c>
       <c r="CD23" s="1">
-        <v>8.551225</v>
+        <v>8.5512250000000005</v>
       </c>
       <c r="CE23" s="1">
-        <v>1986.930000</v>
+        <v>1986.93</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1590.480000</v>
+        <v>-1590.48</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>30611.538875</v>
+        <v>30611.538874999998</v>
       </c>
       <c r="B24" s="1">
-        <v>8.503205</v>
+        <v>8.5032049999999995</v>
       </c>
       <c r="C24" s="1">
-        <v>905.712000</v>
+        <v>905.71199999999999</v>
       </c>
       <c r="D24" s="1">
-        <v>-197.374000</v>
+        <v>-197.374</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>30621.972220</v>
+        <v>30621.97222</v>
       </c>
       <c r="G24" s="1">
-        <v>8.506103</v>
+        <v>8.5061029999999995</v>
       </c>
       <c r="H24" s="1">
-        <v>922.670000</v>
+        <v>922.67</v>
       </c>
       <c r="I24" s="1">
-        <v>-167.540000</v>
+        <v>-167.54</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
         <v>30632.490383</v>
       </c>
       <c r="L24" s="1">
-        <v>8.509025</v>
+        <v>8.5090249999999994</v>
       </c>
       <c r="M24" s="1">
-        <v>944.938000</v>
+        <v>944.93799999999999</v>
       </c>
       <c r="N24" s="1">
-        <v>-119.783000</v>
+        <v>-119.783</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>30643.372111</v>
+        <v>30643.372111000001</v>
       </c>
       <c r="Q24" s="1">
-        <v>8.512048</v>
+        <v>8.5120480000000001</v>
       </c>
       <c r="R24" s="1">
-        <v>951.609000</v>
+        <v>951.60900000000004</v>
       </c>
       <c r="S24" s="1">
-        <v>-104.275000</v>
+        <v>-104.27500000000001</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>30653.843189</v>
+        <v>30653.843188999999</v>
       </c>
       <c r="V24" s="1">
-        <v>8.514956</v>
+        <v>8.5149559999999997</v>
       </c>
       <c r="W24" s="1">
-        <v>958.146000</v>
+        <v>958.14599999999996</v>
       </c>
       <c r="X24" s="1">
-        <v>-90.354100</v>
+        <v>-90.354100000000003</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>30664.106900</v>
+        <v>30664.106899999999</v>
       </c>
       <c r="AA24" s="1">
-        <v>8.517807</v>
+        <v>8.5178069999999995</v>
       </c>
       <c r="AB24" s="1">
-        <v>965.186000</v>
+        <v>965.18600000000004</v>
       </c>
       <c r="AC24" s="1">
-        <v>-80.650500</v>
+        <v>-80.650499999999994</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
         <v>30674.268407</v>
       </c>
       <c r="AF24" s="1">
-        <v>8.520630</v>
+        <v>8.5206300000000006</v>
       </c>
       <c r="AG24" s="1">
-        <v>970.143000</v>
+        <v>970.14300000000003</v>
       </c>
       <c r="AH24" s="1">
-        <v>-80.102500</v>
+        <v>-80.102500000000006</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>30684.524681</v>
+        <v>30684.524680999999</v>
       </c>
       <c r="AK24" s="1">
         <v>8.523479</v>
       </c>
       <c r="AL24" s="1">
-        <v>978.044000</v>
+        <v>978.04399999999998</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.753200</v>
+        <v>-87.753200000000007</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>30695.504648</v>
+        <v>30695.504647999998</v>
       </c>
       <c r="AP24" s="1">
         <v>8.526529</v>
       </c>
       <c r="AQ24" s="1">
-        <v>987.174000</v>
+        <v>987.17399999999998</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.635000</v>
+        <v>-102.63500000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
         <v>30706.258876</v>
       </c>
       <c r="AU24" s="1">
-        <v>8.529516</v>
+        <v>8.5295159999999992</v>
       </c>
       <c r="AV24" s="1">
-        <v>998.481000</v>
+        <v>998.48099999999999</v>
       </c>
       <c r="AW24" s="1">
-        <v>-124.229000</v>
+        <v>-124.229</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>30717.299366</v>
+        <v>30717.299365999999</v>
       </c>
       <c r="AZ24" s="1">
-        <v>8.532583</v>
+        <v>8.5325830000000007</v>
       </c>
       <c r="BA24" s="1">
-        <v>1008.110000</v>
+        <v>1008.11</v>
       </c>
       <c r="BB24" s="1">
-        <v>-142.948000</v>
+        <v>-142.94800000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>30728.253967</v>
+        <v>30728.253967000001</v>
       </c>
       <c r="BE24" s="1">
-        <v>8.535626</v>
+        <v>8.5356260000000006</v>
       </c>
       <c r="BF24" s="1">
-        <v>1053.190000</v>
+        <v>1053.19</v>
       </c>
       <c r="BG24" s="1">
-        <v>-227.952000</v>
+        <v>-227.952</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>30739.648560</v>
+        <v>30739.648560000001</v>
       </c>
       <c r="BJ24" s="1">
-        <v>8.538791</v>
+        <v>8.5387909999999998</v>
       </c>
       <c r="BK24" s="1">
-        <v>1132.330000</v>
+        <v>1132.33</v>
       </c>
       <c r="BL24" s="1">
-        <v>-364.671000</v>
+        <v>-364.67099999999999</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>30750.300146</v>
+        <v>30750.300146000001</v>
       </c>
       <c r="BO24" s="1">
-        <v>8.541750</v>
+        <v>8.5417500000000004</v>
       </c>
       <c r="BP24" s="1">
-        <v>1263.720000</v>
+        <v>1263.72</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-576.566000</v>
+        <v>-576.56600000000003</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
         <v>30760.943796</v>
       </c>
       <c r="BT24" s="1">
-        <v>8.544707</v>
+        <v>8.5447070000000007</v>
       </c>
       <c r="BU24" s="1">
-        <v>1411.770000</v>
+        <v>1411.77</v>
       </c>
       <c r="BV24" s="1">
-        <v>-802.708000</v>
+        <v>-802.70799999999997</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>30771.774935</v>
+        <v>30771.774935000001</v>
       </c>
       <c r="BY24" s="1">
-        <v>8.547715</v>
+        <v>8.5477150000000002</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1574.450000</v>
+        <v>1574.45</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1039.370000</v>
+        <v>-1039.3699999999999</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
         <v>30784.948182</v>
       </c>
       <c r="CD24" s="1">
-        <v>8.551374</v>
+        <v>8.5513739999999991</v>
       </c>
       <c r="CE24" s="1">
-        <v>1985.430000</v>
+        <v>1985.43</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1591.280000</v>
+        <v>-1591.28</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>30611.868217</v>
+        <v>30611.868216999999</v>
       </c>
       <c r="B25" s="1">
-        <v>8.503297</v>
+        <v>8.5032969999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>905.557000</v>
+        <v>905.55700000000002</v>
       </c>
       <c r="D25" s="1">
-        <v>-197.635000</v>
+        <v>-197.63499999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>30622.315948</v>
+        <v>30622.315947999999</v>
       </c>
       <c r="G25" s="1">
-        <v>8.506199</v>
+        <v>8.5061990000000005</v>
       </c>
       <c r="H25" s="1">
-        <v>922.382000</v>
+        <v>922.38199999999995</v>
       </c>
       <c r="I25" s="1">
-        <v>-167.625000</v>
+        <v>-167.625</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>30633.147582</v>
+        <v>30633.147582000001</v>
       </c>
       <c r="L25" s="1">
-        <v>8.509208</v>
+        <v>8.5092079999999992</v>
       </c>
       <c r="M25" s="1">
-        <v>945.088000</v>
+        <v>945.08799999999997</v>
       </c>
       <c r="N25" s="1">
-        <v>-119.791000</v>
+        <v>-119.791</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>30643.759487</v>
+        <v>30643.759486999999</v>
       </c>
       <c r="Q25" s="1">
-        <v>8.512155</v>
+        <v>8.5121549999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>951.645000</v>
+        <v>951.64499999999998</v>
       </c>
       <c r="S25" s="1">
-        <v>-104.267000</v>
+        <v>-104.267</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>30654.219618</v>
+        <v>30654.219617999999</v>
       </c>
       <c r="V25" s="1">
-        <v>8.515061</v>
+        <v>8.5150609999999993</v>
       </c>
       <c r="W25" s="1">
-        <v>958.053000</v>
+        <v>958.053</v>
       </c>
       <c r="X25" s="1">
-        <v>-90.269500</v>
+        <v>-90.269499999999994</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>30664.454595</v>
+        <v>30664.454594999999</v>
       </c>
       <c r="AA25" s="1">
-        <v>8.517904</v>
+        <v>8.5179039999999997</v>
       </c>
       <c r="AB25" s="1">
-        <v>965.264000</v>
+        <v>965.26400000000001</v>
       </c>
       <c r="AC25" s="1">
-        <v>-80.587800</v>
+        <v>-80.587800000000001</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>30674.616379</v>
+        <v>30674.616378999999</v>
       </c>
       <c r="AF25" s="1">
-        <v>8.520727</v>
+        <v>8.5207270000000008</v>
       </c>
       <c r="AG25" s="1">
-        <v>970.157000</v>
+        <v>970.15700000000004</v>
       </c>
       <c r="AH25" s="1">
-        <v>-80.088300</v>
+        <v>-80.088300000000004</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>30684.873866</v>
+        <v>30684.873866000002</v>
       </c>
       <c r="AK25" s="1">
-        <v>8.523576</v>
+        <v>8.5235760000000003</v>
       </c>
       <c r="AL25" s="1">
-        <v>978.019000</v>
+        <v>978.01900000000001</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.767500</v>
+        <v>-87.767499999999998</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>30695.928730</v>
+        <v>30695.92873</v>
       </c>
       <c r="AP25" s="1">
-        <v>8.526647</v>
+        <v>8.5266470000000005</v>
       </c>
       <c r="AQ25" s="1">
-        <v>987.176000</v>
+        <v>987.17600000000004</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.647000</v>
+        <v>-102.64700000000001</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>30706.679980</v>
+        <v>30706.679980000001</v>
       </c>
       <c r="AU25" s="1">
-        <v>8.529633</v>
+        <v>8.5296330000000005</v>
       </c>
       <c r="AV25" s="1">
-        <v>998.491000</v>
+        <v>998.49099999999999</v>
       </c>
       <c r="AW25" s="1">
-        <v>-124.205000</v>
+        <v>-124.205</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>30717.599901</v>
+        <v>30717.599901000001</v>
       </c>
       <c r="AZ25" s="1">
         <v>8.532667</v>
       </c>
       <c r="BA25" s="1">
-        <v>1008.100000</v>
+        <v>1008.1</v>
       </c>
       <c r="BB25" s="1">
-        <v>-142.924000</v>
+        <v>-142.92400000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>30728.617040</v>
+        <v>30728.617040000001</v>
       </c>
       <c r="BE25" s="1">
-        <v>8.535727</v>
+        <v>8.5357269999999996</v>
       </c>
       <c r="BF25" s="1">
-        <v>1053.170000</v>
+        <v>1053.17</v>
       </c>
       <c r="BG25" s="1">
-        <v>-227.932000</v>
+        <v>-227.93199999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>30740.025529</v>
+        <v>30740.025528999999</v>
       </c>
       <c r="BJ25" s="1">
-        <v>8.538896</v>
+        <v>8.5388959999999994</v>
       </c>
       <c r="BK25" s="1">
-        <v>1132.330000</v>
+        <v>1132.33</v>
       </c>
       <c r="BL25" s="1">
-        <v>-364.688000</v>
+        <v>-364.68799999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>30750.695985</v>
+        <v>30750.695984999998</v>
       </c>
       <c r="BO25" s="1">
-        <v>8.541860</v>
+        <v>8.5418599999999998</v>
       </c>
       <c r="BP25" s="1">
-        <v>1263.730000</v>
+        <v>1263.73</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-576.559000</v>
+        <v>-576.55899999999997</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>30761.375315</v>
+        <v>30761.375315000001</v>
       </c>
       <c r="BT25" s="1">
-        <v>8.544826</v>
+        <v>8.5448260000000005</v>
       </c>
       <c r="BU25" s="1">
-        <v>1411.870000</v>
+        <v>1411.87</v>
       </c>
       <c r="BV25" s="1">
-        <v>-802.656000</v>
+        <v>-802.65599999999995</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
         <v>30772.226294</v>
@@ -6617,287 +7033,288 @@
         <v>8.547841</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1574.490000</v>
+        <v>1574.49</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1039.420000</v>
+        <v>-1039.42</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>30785.490839</v>
+        <v>30785.490838999998</v>
       </c>
       <c r="CD25" s="1">
-        <v>8.551525</v>
+        <v>8.5515249999999998</v>
       </c>
       <c r="CE25" s="1">
-        <v>1987.030000</v>
+        <v>1987.03</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1592.190000</v>
+        <v>-1592.19</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>30612.529881</v>
+        <v>30612.529880999999</v>
       </c>
       <c r="B26" s="1">
-        <v>8.503481</v>
+        <v>8.5034810000000007</v>
       </c>
       <c r="C26" s="1">
-        <v>905.900000</v>
+        <v>905.9</v>
       </c>
       <c r="D26" s="1">
-        <v>-197.610000</v>
+        <v>-197.61</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>30622.972650</v>
+        <v>30622.97265</v>
       </c>
       <c r="G26" s="1">
-        <v>8.506381</v>
+        <v>8.5063809999999993</v>
       </c>
       <c r="H26" s="1">
-        <v>923.020000</v>
+        <v>923.02</v>
       </c>
       <c r="I26" s="1">
-        <v>-167.167000</v>
+        <v>-167.167</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
         <v>30633.525038</v>
       </c>
       <c r="L26" s="1">
-        <v>8.509313</v>
+        <v>8.5093130000000006</v>
       </c>
       <c r="M26" s="1">
-        <v>945.237000</v>
+        <v>945.23699999999997</v>
       </c>
       <c r="N26" s="1">
-        <v>-119.815000</v>
+        <v>-119.815</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>30644.109662</v>
+        <v>30644.109661999999</v>
       </c>
       <c r="Q26" s="1">
-        <v>8.512253</v>
+        <v>8.5122529999999994</v>
       </c>
       <c r="R26" s="1">
-        <v>951.637000</v>
+        <v>951.63699999999994</v>
       </c>
       <c r="S26" s="1">
-        <v>-104.257000</v>
+        <v>-104.25700000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>30654.563873</v>
+        <v>30654.563872999999</v>
       </c>
       <c r="V26" s="1">
-        <v>8.515157</v>
+        <v>8.5151570000000003</v>
       </c>
       <c r="W26" s="1">
-        <v>958.054000</v>
+        <v>958.05399999999997</v>
       </c>
       <c r="X26" s="1">
-        <v>-90.380800</v>
+        <v>-90.380799999999994</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>30664.801267</v>
+        <v>30664.801266999999</v>
       </c>
       <c r="AA26" s="1">
-        <v>8.518000</v>
+        <v>8.5180000000000007</v>
       </c>
       <c r="AB26" s="1">
-        <v>965.250000</v>
+        <v>965.25</v>
       </c>
       <c r="AC26" s="1">
-        <v>-80.627900</v>
+        <v>-80.627899999999997</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>30675.050598</v>
+        <v>30675.050598000002</v>
       </c>
       <c r="AF26" s="1">
-        <v>8.520847</v>
+        <v>8.5208469999999998</v>
       </c>
       <c r="AG26" s="1">
-        <v>970.174000</v>
+        <v>970.17399999999998</v>
       </c>
       <c r="AH26" s="1">
-        <v>-80.072400</v>
+        <v>-80.072400000000002</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>30685.289513</v>
       </c>
       <c r="AK26" s="1">
-        <v>8.523692</v>
+        <v>8.5236920000000005</v>
       </c>
       <c r="AL26" s="1">
-        <v>978.066000</v>
+        <v>978.06600000000003</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.762500</v>
+        <v>-87.762500000000003</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>30696.222825</v>
+        <v>30696.222825000001</v>
       </c>
       <c r="AP26" s="1">
-        <v>8.526729</v>
+        <v>8.5267289999999996</v>
       </c>
       <c r="AQ26" s="1">
-        <v>987.156000</v>
+        <v>987.15599999999995</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.637000</v>
+        <v>-102.637</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>30706.990971</v>
+        <v>30706.990970999999</v>
       </c>
       <c r="AU26" s="1">
-        <v>8.529720</v>
+        <v>8.5297199999999993</v>
       </c>
       <c r="AV26" s="1">
-        <v>998.474000</v>
+        <v>998.47400000000005</v>
       </c>
       <c r="AW26" s="1">
-        <v>-124.149000</v>
+        <v>-124.149</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
         <v>30717.960528</v>
       </c>
       <c r="AZ26" s="1">
-        <v>8.532767</v>
+        <v>8.5327669999999998</v>
       </c>
       <c r="BA26" s="1">
-        <v>1008.110000</v>
+        <v>1008.11</v>
       </c>
       <c r="BB26" s="1">
-        <v>-142.913000</v>
+        <v>-142.91300000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>30728.976141</v>
+        <v>30728.976140999999</v>
       </c>
       <c r="BE26" s="1">
-        <v>8.535827</v>
+        <v>8.5358269999999994</v>
       </c>
       <c r="BF26" s="1">
-        <v>1053.170000</v>
+        <v>1053.17</v>
       </c>
       <c r="BG26" s="1">
-        <v>-227.934000</v>
+        <v>-227.934</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>30740.776959</v>
+        <v>30740.776958999999</v>
       </c>
       <c r="BJ26" s="1">
-        <v>8.539105</v>
+        <v>8.5391049999999993</v>
       </c>
       <c r="BK26" s="1">
-        <v>1132.330000</v>
+        <v>1132.33</v>
       </c>
       <c r="BL26" s="1">
-        <v>-364.698000</v>
+        <v>-364.69799999999998</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>30751.116066</v>
+        <v>30751.116065999999</v>
       </c>
       <c r="BO26" s="1">
-        <v>8.541977</v>
+        <v>8.5419769999999993</v>
       </c>
       <c r="BP26" s="1">
-        <v>1263.760000</v>
+        <v>1263.76</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-576.554000</v>
+        <v>-576.55399999999997</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>30761.799428</v>
+        <v>30761.799427999998</v>
       </c>
       <c r="BT26" s="1">
-        <v>8.544944</v>
+        <v>8.5449439999999992</v>
       </c>
       <c r="BU26" s="1">
-        <v>1412.030000</v>
+        <v>1412.03</v>
       </c>
       <c r="BV26" s="1">
-        <v>-802.795000</v>
+        <v>-802.79499999999996</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
         <v>30772.647396</v>
       </c>
       <c r="BY26" s="1">
-        <v>8.547958</v>
+        <v>8.5479579999999995</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1574.460000</v>
+        <v>1574.46</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1039.440000</v>
+        <v>-1039.44</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>30786.029490</v>
+        <v>30786.029490000001</v>
       </c>
       <c r="CD26" s="1">
-        <v>8.551675</v>
+        <v>8.5516749999999995</v>
       </c>
       <c r="CE26" s="1">
-        <v>1986.440000</v>
+        <v>1986.44</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1590.720000</v>
+        <v>-1590.72</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>